--- a/control LUT generator.xlsx
+++ b/control LUT generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\Downloads\8 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9245F14-1D9C-42D5-BC97-FB4458A28782}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{164BAB86-67BF-4CA0-8626-3FD890803317}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DAB1FA04-CE66-4B0E-BC0E-6E0D84A24BB7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>bit number</t>
   </si>
@@ -147,31 +147,10 @@
     <t>function (control pin)</t>
   </si>
   <si>
-    <t>Enable write 1</t>
-  </si>
-  <si>
-    <t>Enable write 2</t>
-  </si>
-  <si>
-    <t>Enable write 3</t>
-  </si>
-  <si>
-    <t>Enable write 4</t>
-  </si>
-  <si>
     <t>Clear registers</t>
   </si>
   <si>
-    <t>!Load PC MSB</t>
-  </si>
-  <si>
-    <t>!Load PC LSB</t>
-  </si>
-  <si>
     <t>Load Saved PC</t>
-  </si>
-  <si>
-    <t>!Equal Zero</t>
   </si>
   <si>
     <t>Subtract / !Add</t>
@@ -195,19 +174,43 @@
     <t>OCL Enable Reg</t>
   </si>
   <si>
-    <t>! Enable Interrupts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass Write Mux </t>
-  </si>
-  <si>
-    <t>Pass Read Mux 1</t>
-  </si>
-  <si>
     <t>Pass Read Mux 2</t>
   </si>
   <si>
-    <t>!Load PC LSB &amp; Equal Zero ( for JNZ...)</t>
+    <t>RAM Write To</t>
+  </si>
+  <si>
+    <t>Enable Register Write</t>
+  </si>
+  <si>
+    <t>Pass Read Mux 1 (pass from instruciton)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Mux Bit 4 </t>
+  </si>
+  <si>
+    <t>Write Mux Bit 3</t>
+  </si>
+  <si>
+    <t>Write Mux Bit 2</t>
+  </si>
+  <si>
+    <t>Write Mux Bit 1</t>
+  </si>
+  <si>
+    <t>Load PC MSB</t>
+  </si>
+  <si>
+    <t>Equal Zero</t>
+  </si>
+  <si>
+    <t>Load PC LSB &amp; Equal Zero ( for JNZ...)</t>
+  </si>
+  <si>
+    <t>Load PC LSB</t>
+  </si>
+  <si>
+    <t>Disable Interrupts</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C70AF1-ED50-4B9F-9B65-C4215ACAA671}">
   <dimension ref="A2:AM140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,7 @@
     <col min="36" max="36" width="15.7109375" customWidth="1"/>
     <col min="37" max="37" width="16.5703125" customWidth="1"/>
     <col min="38" max="38" width="14.85546875" customWidth="1"/>
-    <col min="39" max="39" width="37.85546875" customWidth="1"/>
+    <col min="39" max="39" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -821,14 +824,14 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="3">
         <v>0</v>
@@ -882,18 +885,18 @@
         <v>0</v>
       </c>
       <c r="AF5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="3">
         <v>0</v>
       </c>
       <c r="AI5">
         <f>SUM(B75:AG75)</f>
-        <v>0</v>
+        <v>1140854784</v>
       </c>
       <c r="AJ5" t="str">
         <f>DEC2HEX(AI5)</f>
-        <v>0</v>
+        <v>44001000</v>
       </c>
       <c r="AL5">
         <v>1</v>
@@ -936,79 +939,79 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
       </c>
       <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>11</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
       <c r="AC6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="3">
         <v>0</v>
       </c>
       <c r="AE6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="3">
         <v>1</v>
       </c>
       <c r="AG6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f t="shared" ref="AI6:AI69" si="0">SUM(B76:AG76)</f>
-        <v>3893164032</v>
+        <v>1140854784</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" ref="AJ6:AJ69" si="1">DEC2HEX(AI6)</f>
-        <v>E80CF800</v>
+        <v>44001000</v>
       </c>
       <c r="AL6">
         <v>2</v>
@@ -1051,7 +1054,7 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3"/>
@@ -1124,7 +1127,7 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3"/>
@@ -1197,7 +1200,7 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
@@ -1270,7 +1273,7 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
@@ -1343,7 +1346,7 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3"/>
@@ -1416,7 +1419,7 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3"/>
@@ -1489,7 +1492,7 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3"/>
@@ -1562,7 +1565,7 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3"/>
@@ -1598,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="AM14" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1635,7 +1638,7 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3"/>
@@ -1671,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="AM15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,7 +1711,7 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>0</v>
       </c>
       <c r="M16" s="3"/>
@@ -1744,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="AM16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1784,7 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3"/>
@@ -1817,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="AM17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,7 +1857,7 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3"/>
@@ -1890,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="AM18" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1930,7 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>0</v>
       </c>
       <c r="M19" s="3"/>
@@ -1963,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="AM19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,7 +2003,7 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
@@ -2036,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="AM20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2073,7 +2076,7 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3"/>
@@ -2109,7 +2112,7 @@
         <v>17</v>
       </c>
       <c r="AM21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2146,7 +2149,7 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3"/>
@@ -2182,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="AM22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2219,7 +2222,7 @@
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3"/>
@@ -2255,7 +2258,7 @@
         <v>19</v>
       </c>
       <c r="AM23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2292,7 +2295,7 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3"/>
@@ -2328,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2365,7 +2368,7 @@
       <c r="K25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="3">
         <v>0</v>
       </c>
       <c r="M25" s="3"/>
@@ -2401,7 +2404,7 @@
         <v>21</v>
       </c>
       <c r="AM25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2438,7 +2441,7 @@
       <c r="K26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3"/>
@@ -2474,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="AM26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2511,7 +2514,7 @@
       <c r="K27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3"/>
@@ -2547,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="AM27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,7 +2587,7 @@
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="3">
         <v>0</v>
       </c>
       <c r="M28" s="3"/>
@@ -2620,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="AM28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2657,7 +2660,7 @@
       <c r="K29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3"/>
@@ -2693,7 +2696,7 @@
         <v>25</v>
       </c>
       <c r="AM29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2730,7 +2733,7 @@
       <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>0</v>
       </c>
       <c r="M30" s="3"/>
@@ -2766,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="AM30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2803,7 +2806,7 @@
       <c r="K31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="3">
         <v>0</v>
       </c>
       <c r="M31" s="3"/>
@@ -2876,7 +2879,7 @@
       <c r="K32" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3"/>
@@ -2912,7 +2915,7 @@
         <v>28</v>
       </c>
       <c r="AM32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,7 +2952,7 @@
       <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3"/>
@@ -2985,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="AM33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3022,7 +3025,7 @@
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="3">
         <v>0</v>
       </c>
       <c r="M34" s="3"/>
@@ -3058,7 +3061,7 @@
         <v>30</v>
       </c>
       <c r="AM34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3095,7 +3098,7 @@
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3"/>
@@ -3131,7 +3134,7 @@
         <v>31</v>
       </c>
       <c r="AM35" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3168,7 +3171,7 @@
       <c r="K36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="3">
         <v>0</v>
       </c>
       <c r="M36" s="3"/>
@@ -3232,7 +3235,7 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="3">
         <v>0</v>
       </c>
       <c r="M37" s="3"/>
@@ -3296,7 +3299,7 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38" s="3"/>
@@ -3360,7 +3363,7 @@
       <c r="K39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39" s="3"/>
@@ -3424,7 +3427,7 @@
       <c r="K40" s="2">
         <v>0</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="3">
         <v>0</v>
       </c>
       <c r="M40" s="3"/>
@@ -3488,7 +3491,7 @@
       <c r="K41" s="2">
         <v>0</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3"/>
@@ -3552,7 +3555,7 @@
       <c r="K42" s="2">
         <v>0</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3"/>
@@ -3616,7 +3619,7 @@
       <c r="K43" s="2">
         <v>0</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3"/>
@@ -3680,7 +3683,7 @@
       <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3"/>
@@ -3744,7 +3747,7 @@
       <c r="K45" s="2">
         <v>0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3"/>
@@ -3808,7 +3811,7 @@
       <c r="K46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3"/>
@@ -3872,7 +3875,7 @@
       <c r="K47" s="2">
         <v>0</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3"/>
@@ -3936,7 +3939,7 @@
       <c r="K48" s="2">
         <v>0</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3"/>
@@ -4000,7 +4003,7 @@
       <c r="K49" s="2">
         <v>0</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3"/>
@@ -4064,7 +4067,7 @@
       <c r="K50" s="2">
         <v>0</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="3">
         <v>0</v>
       </c>
       <c r="M50" s="3"/>
@@ -4128,7 +4131,7 @@
       <c r="K51" s="2">
         <v>0</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="3">
         <v>0</v>
       </c>
       <c r="M51" s="3"/>
@@ -4192,7 +4195,7 @@
       <c r="K52" s="2">
         <v>0</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3"/>
@@ -4256,7 +4259,7 @@
       <c r="K53" s="2">
         <v>0</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="3">
         <v>0</v>
       </c>
       <c r="M53" s="3"/>
@@ -4320,7 +4323,7 @@
       <c r="K54" s="2">
         <v>0</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3"/>
@@ -4384,7 +4387,7 @@
       <c r="K55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="3">
         <v>0</v>
       </c>
       <c r="M55" s="3"/>
@@ -4448,7 +4451,7 @@
       <c r="K56" s="2">
         <v>0</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="3">
         <v>0</v>
       </c>
       <c r="M56" s="3"/>
@@ -4512,7 +4515,7 @@
       <c r="K57" s="2">
         <v>0</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3"/>
@@ -4576,7 +4579,7 @@
       <c r="K58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3"/>
@@ -4640,7 +4643,7 @@
       <c r="K59" s="2">
         <v>0</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3"/>
@@ -4704,7 +4707,7 @@
       <c r="K60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3"/>
@@ -4768,7 +4771,7 @@
       <c r="K61" s="2">
         <v>0</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3"/>
@@ -4832,7 +4835,7 @@
       <c r="K62" s="2">
         <v>0</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3"/>
@@ -4896,7 +4899,7 @@
       <c r="K63" s="2">
         <v>0</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="3">
         <v>0</v>
       </c>
       <c r="M63" s="3"/>
@@ -4960,7 +4963,7 @@
       <c r="K64" s="2">
         <v>0</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="3">
         <v>0</v>
       </c>
       <c r="M64" s="3"/>
@@ -5024,7 +5027,7 @@
       <c r="K65" s="2">
         <v>0</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="3">
         <v>0</v>
       </c>
       <c r="M65" s="3"/>
@@ -5088,7 +5091,7 @@
       <c r="K66" s="2">
         <v>0</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="3">
         <v>0</v>
       </c>
       <c r="M66" s="3"/>
@@ -5152,7 +5155,7 @@
       <c r="K67" s="2">
         <v>0</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="3">
         <v>0</v>
       </c>
       <c r="M67" s="3"/>
@@ -5216,7 +5219,7 @@
       <c r="K68" s="2">
         <v>0</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="3">
         <v>0</v>
       </c>
       <c r="M68" s="3"/>
@@ -5280,7 +5283,7 @@
       <c r="K69" s="2">
         <v>0</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="3">
         <v>0</v>
       </c>
       <c r="M69" s="3"/>
@@ -5344,7 +5347,7 @@
       <c r="K70" s="2">
         <v>0</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3"/>
@@ -5433,7 +5436,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="O75">
         <f t="shared" si="4"/>
@@ -5489,7 +5492,7 @@
       </c>
       <c r="AB75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="AC75">
         <f t="shared" si="4"/>
@@ -5505,7 +5508,7 @@
       </c>
       <c r="AF75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1073741824</v>
       </c>
       <c r="AG75">
         <f t="shared" si="4"/>
@@ -5559,7 +5562,7 @@
       </c>
       <c r="M76">
         <f t="shared" si="6"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <f t="shared" si="6"/>
@@ -5567,27 +5570,27 @@
       </c>
       <c r="O76">
         <f t="shared" si="6"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="P76">
         <f t="shared" si="6"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <f t="shared" si="6"/>
-        <v>360448</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <f t="shared" si="6"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <f t="shared" si="6"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <f t="shared" si="6"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="U76">
         <f t="shared" si="6"/>
@@ -5619,11 +5622,11 @@
       </c>
       <c r="AB76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="AC76">
         <f t="shared" si="6"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AD76">
         <f t="shared" si="6"/>
@@ -5631,7 +5634,7 @@
       </c>
       <c r="AE76">
         <f t="shared" si="6"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AF76">
         <f t="shared" si="6"/>
@@ -5639,7 +5642,7 @@
       </c>
       <c r="AG76">
         <f t="shared" si="6"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">

--- a/control LUT generator.xlsx
+++ b/control LUT generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\Downloads\8 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9455A5F3-7688-49AD-A202-F9457BF2A329}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF2B6C69-3FAA-4074-91FC-F29528FBFFE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DAB1FA04-CE66-4B0E-BC0E-6E0D84A24BB7}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -486,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -513,6 +520,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C70AF1-ED50-4B9F-9B65-C4215ACAA671}">
   <dimension ref="A1:AN138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,8 +987,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
+    <row r="5" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="str">
         <f>DEC2BIN(ROW()-ROW($A$5), 6)</f>
         <v>000000</v>
       </c>
@@ -1096,8 +1106,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
+    <row r="6" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="str">
         <f t="shared" ref="A6:A68" si="0">DEC2BIN(ROW()-ROW($A$5), 6)</f>
         <v>000001</v>
       </c>
@@ -1215,8 +1225,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
+    <row r="7" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>000010</v>
       </c>
@@ -1334,8 +1344,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
+    <row r="8" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>000011</v>
       </c>
@@ -1453,8 +1463,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
+    <row r="9" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>000100</v>
       </c>
@@ -1485,37 +1495,85 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
       <c r="AJ9">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>1023422976</v>
       </c>
       <c r="AK9" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>3D003200</v>
       </c>
       <c r="AM9" s="8">
         <v>5</v>
@@ -1524,8 +1582,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
+    <row r="10" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>000101</v>
       </c>
@@ -1595,8 +1653,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
+    <row r="11" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>000110</v>
       </c>
@@ -1666,8 +1724,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
+    <row r="12" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>000111</v>
       </c>
@@ -1735,8 +1793,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
+    <row r="13" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001000</v>
       </c>
@@ -1767,37 +1825,85 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ13">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>3355447296</v>
       </c>
       <c r="AK13" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>C8001000</v>
       </c>
       <c r="AM13" s="8">
         <v>9</v>
@@ -1806,8 +1912,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
+    <row r="14" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001001</v>
       </c>
@@ -1838,37 +1944,85 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ14">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>3355447296</v>
       </c>
       <c r="AK14" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>C8001000</v>
       </c>
       <c r="AM14" s="8">
         <v>10</v>
@@ -1877,8 +2031,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
+    <row r="15" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001010</v>
       </c>
@@ -1909,37 +2063,85 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ15">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>3355709440</v>
       </c>
       <c r="AK15" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>C8041000</v>
       </c>
       <c r="AM15" s="8">
         <v>11</v>
@@ -1948,8 +2150,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
+    <row r="16" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001011</v>
       </c>
@@ -1980,37 +2182,85 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ16">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>3355709440</v>
       </c>
       <c r="AK16" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>C8041000</v>
       </c>
       <c r="AM16" s="8">
         <v>12</v>
@@ -2019,8 +2269,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+    <row r="17" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001100</v>
       </c>
@@ -2090,8 +2340,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+    <row r="18" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001101</v>
       </c>
@@ -2161,8 +2411,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+    <row r="19" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001110</v>
       </c>
@@ -2232,8 +2482,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+    <row r="20" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>001111</v>
       </c>
@@ -2303,8 +2553,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+    <row r="21" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010000</v>
       </c>
@@ -2374,8 +2624,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+    <row r="22" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010001</v>
       </c>
@@ -2445,8 +2695,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+    <row r="23" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010010</v>
       </c>
@@ -2516,8 +2766,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+    <row r="24" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010011</v>
       </c>
@@ -2587,8 +2837,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+    <row r="25" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010100</v>
       </c>
@@ -2658,8 +2908,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+    <row r="26" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010101</v>
       </c>
@@ -2729,8 +2979,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+    <row r="27" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010110</v>
       </c>
@@ -2800,8 +3050,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+    <row r="28" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="str">
         <f t="shared" si="0"/>
         <v>010111</v>
       </c>
@@ -2869,8 +3119,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+    <row r="29" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011000</v>
       </c>
@@ -2940,8 +3190,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+    <row r="30" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011001</v>
       </c>
@@ -3011,8 +3261,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+    <row r="31" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011010</v>
       </c>
@@ -3082,8 +3332,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+    <row r="32" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011011</v>
       </c>
@@ -3153,8 +3403,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+    <row r="33" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011100</v>
       </c>
@@ -3224,8 +3474,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+    <row r="34" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011101</v>
       </c>
@@ -3295,8 +3545,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+    <row r="35" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011110</v>
       </c>
@@ -3364,8 +3614,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+    <row r="36" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="str">
         <f t="shared" si="0"/>
         <v>011111</v>
       </c>
@@ -3427,8 +3677,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+    <row r="37" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -3492,8 +3742,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+    <row r="38" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100001</v>
       </c>
@@ -3557,8 +3807,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+    <row r="39" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100010</v>
       </c>
@@ -3622,8 +3872,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
+    <row r="40" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100011</v>
       </c>
@@ -3687,8 +3937,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
+    <row r="41" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100100</v>
       </c>
@@ -3752,8 +4002,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
+    <row r="42" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100101</v>
       </c>
@@ -3817,8 +4067,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
+    <row r="43" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100110</v>
       </c>
@@ -3880,8 +4130,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
+    <row r="44" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="str">
         <f t="shared" si="0"/>
         <v>100111</v>
       </c>
@@ -3945,8 +4195,8 @@
         <v>FFFFFF00</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101000</v>
       </c>
@@ -3975,41 +4225,89 @@
       <c r="J45" s="18">
         <v>0</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="18"/>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
+      <c r="K45" s="18">
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0</v>
+      </c>
+      <c r="N45" s="18">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18">
+        <v>0</v>
+      </c>
+      <c r="P45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>0</v>
+      </c>
+      <c r="R45" s="18">
+        <v>0</v>
+      </c>
+      <c r="S45" s="18">
+        <v>0</v>
+      </c>
+      <c r="T45" s="18">
+        <v>0</v>
+      </c>
+      <c r="U45" s="18">
+        <v>0</v>
+      </c>
+      <c r="V45" s="18">
+        <v>0</v>
+      </c>
+      <c r="W45" s="18">
+        <v>0</v>
+      </c>
+      <c r="X45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ45">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101001</v>
       </c>
@@ -4038,41 +4336,89 @@
       <c r="J46" s="18">
         <v>0</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="18"/>
-      <c r="AE46" s="18"/>
-      <c r="AF46" s="18"/>
-      <c r="AG46" s="18"/>
-      <c r="AH46" s="18"/>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0</v>
+      </c>
+      <c r="M46" s="18">
+        <v>0</v>
+      </c>
+      <c r="N46" s="18">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18">
+        <v>0</v>
+      </c>
+      <c r="P46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>0</v>
+      </c>
+      <c r="R46" s="18">
+        <v>0</v>
+      </c>
+      <c r="S46" s="18">
+        <v>0</v>
+      </c>
+      <c r="T46" s="18">
+        <v>0</v>
+      </c>
+      <c r="U46" s="18">
+        <v>0</v>
+      </c>
+      <c r="V46" s="18">
+        <v>0</v>
+      </c>
+      <c r="W46" s="18">
+        <v>0</v>
+      </c>
+      <c r="X46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ46">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101010</v>
       </c>
@@ -4101,41 +4447,89 @@
       <c r="J47" s="18">
         <v>0</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18"/>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0</v>
+      </c>
+      <c r="O47" s="18">
+        <v>0</v>
+      </c>
+      <c r="P47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>0</v>
+      </c>
+      <c r="R47" s="18">
+        <v>0</v>
+      </c>
+      <c r="S47" s="18">
+        <v>0</v>
+      </c>
+      <c r="T47" s="18">
+        <v>0</v>
+      </c>
+      <c r="U47" s="18">
+        <v>0</v>
+      </c>
+      <c r="V47" s="18">
+        <v>0</v>
+      </c>
+      <c r="W47" s="18">
+        <v>0</v>
+      </c>
+      <c r="X47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ47">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101011</v>
       </c>
@@ -4164,41 +4558,89 @@
       <c r="J48" s="18">
         <v>0</v>
       </c>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="18"/>
-      <c r="AB48" s="18"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="18"/>
+      <c r="K48" s="18">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
+        <v>0</v>
+      </c>
+      <c r="M48" s="18">
+        <v>0</v>
+      </c>
+      <c r="N48" s="18">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18">
+        <v>0</v>
+      </c>
+      <c r="P48" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="18">
+        <v>0</v>
+      </c>
+      <c r="R48" s="18">
+        <v>0</v>
+      </c>
+      <c r="S48" s="18">
+        <v>0</v>
+      </c>
+      <c r="T48" s="18">
+        <v>0</v>
+      </c>
+      <c r="U48" s="18">
+        <v>0</v>
+      </c>
+      <c r="V48" s="18">
+        <v>0</v>
+      </c>
+      <c r="W48" s="18">
+        <v>0</v>
+      </c>
+      <c r="X48" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ48">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101100</v>
       </c>
@@ -4227,41 +4669,89 @@
       <c r="J49" s="18">
         <v>0</v>
       </c>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="18"/>
-      <c r="AB49" s="18"/>
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="18"/>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
+      <c r="K49" s="18">
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
+        <v>0</v>
+      </c>
+      <c r="N49" s="18">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>0</v>
+      </c>
+      <c r="R49" s="18">
+        <v>0</v>
+      </c>
+      <c r="S49" s="18">
+        <v>0</v>
+      </c>
+      <c r="T49" s="18">
+        <v>0</v>
+      </c>
+      <c r="U49" s="18">
+        <v>0</v>
+      </c>
+      <c r="V49" s="18">
+        <v>0</v>
+      </c>
+      <c r="W49" s="18">
+        <v>0</v>
+      </c>
+      <c r="X49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ49">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101101</v>
       </c>
@@ -4290,41 +4780,89 @@
       <c r="J50" s="18">
         <v>0</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
+      <c r="K50" s="18">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+      <c r="N50" s="18">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+      <c r="P50" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>0</v>
+      </c>
+      <c r="R50" s="18">
+        <v>0</v>
+      </c>
+      <c r="S50" s="18">
+        <v>0</v>
+      </c>
+      <c r="T50" s="18">
+        <v>0</v>
+      </c>
+      <c r="U50" s="18">
+        <v>0</v>
+      </c>
+      <c r="V50" s="18">
+        <v>0</v>
+      </c>
+      <c r="W50" s="18">
+        <v>0</v>
+      </c>
+      <c r="X50" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ50">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101110</v>
       </c>
@@ -4353,41 +4891,89 @@
       <c r="J51" s="18">
         <v>0</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
+      <c r="K51" s="18">
+        <v>0</v>
+      </c>
+      <c r="L51" s="18">
+        <v>0</v>
+      </c>
+      <c r="M51" s="18">
+        <v>0</v>
+      </c>
+      <c r="N51" s="18">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18">
+        <v>0</v>
+      </c>
+      <c r="P51" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>0</v>
+      </c>
+      <c r="R51" s="18">
+        <v>0</v>
+      </c>
+      <c r="S51" s="18">
+        <v>0</v>
+      </c>
+      <c r="T51" s="18">
+        <v>0</v>
+      </c>
+      <c r="U51" s="18">
+        <v>0</v>
+      </c>
+      <c r="V51" s="18">
+        <v>0</v>
+      </c>
+      <c r="W51" s="18">
+        <v>0</v>
+      </c>
+      <c r="X51" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ51">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="str">
         <f t="shared" si="0"/>
         <v>101111</v>
       </c>
@@ -4416,41 +5002,89 @@
       <c r="J52" s="18">
         <v>0</v>
       </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18"/>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
+      <c r="K52" s="18">
+        <v>0</v>
+      </c>
+      <c r="L52" s="18">
+        <v>0</v>
+      </c>
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="18">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
+        <v>0</v>
+      </c>
+      <c r="P52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>0</v>
+      </c>
+      <c r="R52" s="18">
+        <v>0</v>
+      </c>
+      <c r="S52" s="18">
+        <v>0</v>
+      </c>
+      <c r="T52" s="18">
+        <v>0</v>
+      </c>
+      <c r="U52" s="18">
+        <v>0</v>
+      </c>
+      <c r="V52" s="18">
+        <v>0</v>
+      </c>
+      <c r="W52" s="18">
+        <v>0</v>
+      </c>
+      <c r="X52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ52">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
@@ -4479,41 +5113,89 @@
       <c r="J53" s="18">
         <v>0</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
+      <c r="K53" s="18">
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
+        <v>0</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>0</v>
+      </c>
+      <c r="R53" s="18">
+        <v>0</v>
+      </c>
+      <c r="S53" s="18">
+        <v>0</v>
+      </c>
+      <c r="T53" s="18">
+        <v>0</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0</v>
+      </c>
+      <c r="V53" s="18">
+        <v>0</v>
+      </c>
+      <c r="W53" s="18">
+        <v>0</v>
+      </c>
+      <c r="X53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ53">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110001</v>
       </c>
@@ -4542,41 +5224,89 @@
       <c r="J54" s="18">
         <v>0</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="18"/>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="18">
+        <v>0</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>0</v>
+      </c>
+      <c r="R54" s="18">
+        <v>0</v>
+      </c>
+      <c r="S54" s="18">
+        <v>0</v>
+      </c>
+      <c r="T54" s="18">
+        <v>0</v>
+      </c>
+      <c r="U54" s="18">
+        <v>0</v>
+      </c>
+      <c r="V54" s="18">
+        <v>0</v>
+      </c>
+      <c r="W54" s="18">
+        <v>0</v>
+      </c>
+      <c r="X54" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ54">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110010</v>
       </c>
@@ -4605,41 +5335,89 @@
       <c r="J55" s="18">
         <v>0</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="18"/>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
+        <v>0</v>
+      </c>
+      <c r="M55" s="18">
+        <v>0</v>
+      </c>
+      <c r="N55" s="18">
+        <v>0</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>0</v>
+      </c>
+      <c r="R55" s="18">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18">
+        <v>0</v>
+      </c>
+      <c r="T55" s="18">
+        <v>0</v>
+      </c>
+      <c r="U55" s="18">
+        <v>0</v>
+      </c>
+      <c r="V55" s="18">
+        <v>0</v>
+      </c>
+      <c r="W55" s="18">
+        <v>0</v>
+      </c>
+      <c r="X55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ55">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110011</v>
       </c>
@@ -4668,41 +5446,89 @@
       <c r="J56" s="18">
         <v>0</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="18"/>
-      <c r="AG56" s="18"/>
-      <c r="AH56" s="18"/>
+      <c r="K56" s="18">
+        <v>0</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="18">
+        <v>0</v>
+      </c>
+      <c r="O56" s="18">
+        <v>0</v>
+      </c>
+      <c r="P56" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>0</v>
+      </c>
+      <c r="R56" s="18">
+        <v>0</v>
+      </c>
+      <c r="S56" s="18">
+        <v>0</v>
+      </c>
+      <c r="T56" s="18">
+        <v>0</v>
+      </c>
+      <c r="U56" s="18">
+        <v>0</v>
+      </c>
+      <c r="V56" s="18">
+        <v>0</v>
+      </c>
+      <c r="W56" s="18">
+        <v>0</v>
+      </c>
+      <c r="X56" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ56">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK56" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110100</v>
       </c>
@@ -4731,41 +5557,89 @@
       <c r="J57" s="18">
         <v>0</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <v>0</v>
+      </c>
+      <c r="M57" s="18">
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>0</v>
+      </c>
+      <c r="R57" s="18">
+        <v>0</v>
+      </c>
+      <c r="S57" s="18">
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0</v>
+      </c>
+      <c r="V57" s="18">
+        <v>0</v>
+      </c>
+      <c r="W57" s="18">
+        <v>0</v>
+      </c>
+      <c r="X57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ57">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK57" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110101</v>
       </c>
@@ -4794,41 +5668,89 @@
       <c r="J58" s="18">
         <v>0</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+      <c r="L58" s="18">
+        <v>0</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+      <c r="N58" s="18">
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>0</v>
+      </c>
+      <c r="R58" s="18">
+        <v>0</v>
+      </c>
+      <c r="S58" s="18">
+        <v>0</v>
+      </c>
+      <c r="T58" s="18">
+        <v>0</v>
+      </c>
+      <c r="U58" s="18">
+        <v>0</v>
+      </c>
+      <c r="V58" s="18">
+        <v>0</v>
+      </c>
+      <c r="W58" s="18">
+        <v>0</v>
+      </c>
+      <c r="X58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ58">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK58" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110110</v>
       </c>
@@ -4857,41 +5779,89 @@
       <c r="J59" s="18">
         <v>0</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
+      <c r="K59" s="18">
+        <v>0</v>
+      </c>
+      <c r="L59" s="18">
+        <v>0</v>
+      </c>
+      <c r="M59" s="18">
+        <v>0</v>
+      </c>
+      <c r="N59" s="18">
+        <v>0</v>
+      </c>
+      <c r="O59" s="18">
+        <v>0</v>
+      </c>
+      <c r="P59" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>0</v>
+      </c>
+      <c r="R59" s="18">
+        <v>0</v>
+      </c>
+      <c r="S59" s="18">
+        <v>0</v>
+      </c>
+      <c r="T59" s="18">
+        <v>0</v>
+      </c>
+      <c r="U59" s="18">
+        <v>0</v>
+      </c>
+      <c r="V59" s="18">
+        <v>0</v>
+      </c>
+      <c r="W59" s="18">
+        <v>0</v>
+      </c>
+      <c r="X59" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ59">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK59" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="str">
         <f t="shared" si="0"/>
         <v>110111</v>
       </c>
@@ -4920,41 +5890,89 @@
       <c r="J60" s="18">
         <v>0</v>
       </c>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
+      <c r="K60" s="18">
+        <v>0</v>
+      </c>
+      <c r="L60" s="18">
+        <v>0</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0</v>
+      </c>
+      <c r="N60" s="18">
+        <v>0</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0</v>
+      </c>
+      <c r="P60" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>0</v>
+      </c>
+      <c r="R60" s="18">
+        <v>0</v>
+      </c>
+      <c r="S60" s="18">
+        <v>0</v>
+      </c>
+      <c r="T60" s="18">
+        <v>0</v>
+      </c>
+      <c r="U60" s="18">
+        <v>0</v>
+      </c>
+      <c r="V60" s="18">
+        <v>0</v>
+      </c>
+      <c r="W60" s="18">
+        <v>0</v>
+      </c>
+      <c r="X60" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ60">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111000</v>
       </c>
@@ -4983,41 +6001,89 @@
       <c r="J61" s="18">
         <v>0</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
+      <c r="K61" s="18">
+        <v>0</v>
+      </c>
+      <c r="L61" s="18">
+        <v>0</v>
+      </c>
+      <c r="M61" s="18">
+        <v>0</v>
+      </c>
+      <c r="N61" s="18">
+        <v>0</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0</v>
+      </c>
+      <c r="P61" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>0</v>
+      </c>
+      <c r="R61" s="18">
+        <v>0</v>
+      </c>
+      <c r="S61" s="18">
+        <v>0</v>
+      </c>
+      <c r="T61" s="18">
+        <v>0</v>
+      </c>
+      <c r="U61" s="18">
+        <v>0</v>
+      </c>
+      <c r="V61" s="18">
+        <v>0</v>
+      </c>
+      <c r="W61" s="18">
+        <v>0</v>
+      </c>
+      <c r="X61" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ61">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK61" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111001</v>
       </c>
@@ -5046,41 +6112,89 @@
       <c r="J62" s="18">
         <v>0</v>
       </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="18"/>
-      <c r="Y62" s="18"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="18"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-      <c r="AE62" s="18"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="18"/>
-      <c r="AH62" s="18"/>
+      <c r="K62" s="18">
+        <v>0</v>
+      </c>
+      <c r="L62" s="18">
+        <v>0</v>
+      </c>
+      <c r="M62" s="18">
+        <v>0</v>
+      </c>
+      <c r="N62" s="18">
+        <v>0</v>
+      </c>
+      <c r="O62" s="18">
+        <v>0</v>
+      </c>
+      <c r="P62" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>0</v>
+      </c>
+      <c r="R62" s="18">
+        <v>0</v>
+      </c>
+      <c r="S62" s="18">
+        <v>0</v>
+      </c>
+      <c r="T62" s="18">
+        <v>0</v>
+      </c>
+      <c r="U62" s="18">
+        <v>0</v>
+      </c>
+      <c r="V62" s="18">
+        <v>0</v>
+      </c>
+      <c r="W62" s="18">
+        <v>0</v>
+      </c>
+      <c r="X62" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ62">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK62" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111010</v>
       </c>
@@ -5109,41 +6223,89 @@
       <c r="J63" s="18">
         <v>0</v>
       </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
-      <c r="AF63" s="18"/>
-      <c r="AG63" s="18"/>
-      <c r="AH63" s="18"/>
+      <c r="K63" s="18">
+        <v>0</v>
+      </c>
+      <c r="L63" s="18">
+        <v>0</v>
+      </c>
+      <c r="M63" s="18">
+        <v>0</v>
+      </c>
+      <c r="N63" s="18">
+        <v>0</v>
+      </c>
+      <c r="O63" s="18">
+        <v>0</v>
+      </c>
+      <c r="P63" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="18">
+        <v>0</v>
+      </c>
+      <c r="R63" s="18">
+        <v>0</v>
+      </c>
+      <c r="S63" s="18">
+        <v>0</v>
+      </c>
+      <c r="T63" s="18">
+        <v>0</v>
+      </c>
+      <c r="U63" s="18">
+        <v>0</v>
+      </c>
+      <c r="V63" s="18">
+        <v>0</v>
+      </c>
+      <c r="W63" s="18">
+        <v>0</v>
+      </c>
+      <c r="X63" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ63">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111011</v>
       </c>
@@ -5172,41 +6334,89 @@
       <c r="J64" s="18">
         <v>0</v>
       </c>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
-      <c r="Y64" s="18"/>
-      <c r="Z64" s="18"/>
-      <c r="AA64" s="18"/>
-      <c r="AB64" s="18"/>
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="18"/>
-      <c r="AF64" s="18"/>
-      <c r="AG64" s="18"/>
-      <c r="AH64" s="18"/>
+      <c r="K64" s="18">
+        <v>0</v>
+      </c>
+      <c r="L64" s="18">
+        <v>0</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0</v>
+      </c>
+      <c r="N64" s="18">
+        <v>0</v>
+      </c>
+      <c r="O64" s="18">
+        <v>0</v>
+      </c>
+      <c r="P64" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="18">
+        <v>0</v>
+      </c>
+      <c r="R64" s="18">
+        <v>0</v>
+      </c>
+      <c r="S64" s="18">
+        <v>0</v>
+      </c>
+      <c r="T64" s="18">
+        <v>0</v>
+      </c>
+      <c r="U64" s="18">
+        <v>0</v>
+      </c>
+      <c r="V64" s="18">
+        <v>0</v>
+      </c>
+      <c r="W64" s="18">
+        <v>0</v>
+      </c>
+      <c r="X64" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ64">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK64" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+    <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111100</v>
       </c>
@@ -5235,41 +6445,89 @@
       <c r="J65" s="18">
         <v>0</v>
       </c>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="18"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="18"/>
-      <c r="AA65" s="18"/>
-      <c r="AB65" s="18"/>
-      <c r="AC65" s="18"/>
-      <c r="AD65" s="18"/>
-      <c r="AE65" s="18"/>
-      <c r="AF65" s="18"/>
-      <c r="AG65" s="18"/>
-      <c r="AH65" s="18"/>
+      <c r="K65" s="18">
+        <v>0</v>
+      </c>
+      <c r="L65" s="18">
+        <v>0</v>
+      </c>
+      <c r="M65" s="18">
+        <v>0</v>
+      </c>
+      <c r="N65" s="18">
+        <v>0</v>
+      </c>
+      <c r="O65" s="18">
+        <v>0</v>
+      </c>
+      <c r="P65" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>0</v>
+      </c>
+      <c r="R65" s="18">
+        <v>0</v>
+      </c>
+      <c r="S65" s="18">
+        <v>0</v>
+      </c>
+      <c r="T65" s="18">
+        <v>0</v>
+      </c>
+      <c r="U65" s="18">
+        <v>0</v>
+      </c>
+      <c r="V65" s="18">
+        <v>0</v>
+      </c>
+      <c r="W65" s="18">
+        <v>0</v>
+      </c>
+      <c r="X65" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ65">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK65" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
+    <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111101</v>
       </c>
@@ -5298,41 +6556,89 @@
       <c r="J66" s="18">
         <v>0</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="18"/>
-      <c r="AB66" s="18"/>
-      <c r="AC66" s="18"/>
-      <c r="AD66" s="18"/>
-      <c r="AE66" s="18"/>
-      <c r="AF66" s="18"/>
-      <c r="AG66" s="18"/>
-      <c r="AH66" s="18"/>
+      <c r="K66" s="18">
+        <v>0</v>
+      </c>
+      <c r="L66" s="18">
+        <v>0</v>
+      </c>
+      <c r="M66" s="18">
+        <v>0</v>
+      </c>
+      <c r="N66" s="18">
+        <v>0</v>
+      </c>
+      <c r="O66" s="18">
+        <v>0</v>
+      </c>
+      <c r="P66" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="18">
+        <v>0</v>
+      </c>
+      <c r="R66" s="18">
+        <v>0</v>
+      </c>
+      <c r="S66" s="18">
+        <v>0</v>
+      </c>
+      <c r="T66" s="18">
+        <v>0</v>
+      </c>
+      <c r="U66" s="18">
+        <v>0</v>
+      </c>
+      <c r="V66" s="18">
+        <v>0</v>
+      </c>
+      <c r="W66" s="18">
+        <v>0</v>
+      </c>
+      <c r="X66" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ66">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
+    <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111110</v>
       </c>
@@ -5361,41 +6667,89 @@
       <c r="J67" s="18">
         <v>0</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
-      <c r="Y67" s="18"/>
-      <c r="Z67" s="18"/>
-      <c r="AA67" s="18"/>
-      <c r="AB67" s="18"/>
-      <c r="AC67" s="18"/>
-      <c r="AD67" s="18"/>
-      <c r="AE67" s="18"/>
-      <c r="AF67" s="18"/>
-      <c r="AG67" s="18"/>
-      <c r="AH67" s="18"/>
+      <c r="K67" s="18">
+        <v>0</v>
+      </c>
+      <c r="L67" s="18">
+        <v>0</v>
+      </c>
+      <c r="M67" s="18">
+        <v>0</v>
+      </c>
+      <c r="N67" s="18">
+        <v>0</v>
+      </c>
+      <c r="O67" s="18">
+        <v>0</v>
+      </c>
+      <c r="P67" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="18">
+        <v>0</v>
+      </c>
+      <c r="R67" s="18">
+        <v>0</v>
+      </c>
+      <c r="S67" s="18">
+        <v>0</v>
+      </c>
+      <c r="T67" s="18">
+        <v>0</v>
+      </c>
+      <c r="U67" s="18">
+        <v>0</v>
+      </c>
+      <c r="V67" s="18">
+        <v>0</v>
+      </c>
+      <c r="W67" s="18">
+        <v>0</v>
+      </c>
+      <c r="X67" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ67">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK67" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
+    <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="str">
         <f t="shared" si="0"/>
         <v>111111</v>
       </c>
@@ -5424,37 +6778,85 @@
       <c r="J68" s="19">
         <v>0</v>
       </c>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
-      <c r="AH68" s="19"/>
+      <c r="K68" s="18">
+        <v>0</v>
+      </c>
+      <c r="L68" s="18">
+        <v>0</v>
+      </c>
+      <c r="M68" s="18">
+        <v>0</v>
+      </c>
+      <c r="N68" s="18">
+        <v>0</v>
+      </c>
+      <c r="O68" s="18">
+        <v>0</v>
+      </c>
+      <c r="P68" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="18">
+        <v>0</v>
+      </c>
+      <c r="R68" s="18">
+        <v>0</v>
+      </c>
+      <c r="S68" s="18">
+        <v>0</v>
+      </c>
+      <c r="T68" s="18">
+        <v>0</v>
+      </c>
+      <c r="U68" s="18">
+        <v>0</v>
+      </c>
+      <c r="V68" s="18">
+        <v>0</v>
+      </c>
+      <c r="W68" s="18">
+        <v>0</v>
+      </c>
+      <c r="X68" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="18">
+        <v>0</v>
+      </c>
       <c r="AJ68">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>0</v>
       </c>
       <c r="AK68" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
@@ -5662,11 +7064,11 @@
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C76" s="15">
-        <f t="shared" ref="C76:C139" si="4">PRODUCT((POWER(2,C$2)), C6)</f>
+        <f t="shared" ref="C76:C138" si="4">PRODUCT((POWER(2,C$2)), C6)</f>
         <v>0</v>
       </c>
       <c r="D76" s="15">
-        <f t="shared" ref="D76:AH76" si="5">PRODUCT((POWER(2,D$2)), D6)</f>
+        <f t="shared" ref="D76:J76" si="5">PRODUCT((POWER(2,D$2)), D6)</f>
         <v>0</v>
       </c>
       <c r="E76" s="15">
@@ -5926,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="15">
-        <f t="shared" ref="D78:AH78" si="8">PRODUCT((POWER(2,D$2)), D8)</f>
+        <f t="shared" ref="D78:J78" si="8">PRODUCT((POWER(2,D$2)), D8)</f>
         <v>0</v>
       </c>
       <c r="E78" s="15">
@@ -6085,7 +7487,7 @@
       </c>
       <c r="K79" s="15">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L79" s="15">
         <f t="shared" si="10"/>
@@ -6093,11 +7495,11 @@
       </c>
       <c r="M79" s="15">
         <f t="shared" si="10"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N79" s="15">
         <f t="shared" si="10"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O79" s="15">
         <f t="shared" si="10"/>
@@ -6109,43 +7511,43 @@
       </c>
       <c r="Q79" s="15">
         <f t="shared" si="10"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R79" s="15">
         <f t="shared" si="10"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S79" s="15">
         <f t="shared" si="10"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T79" s="15">
         <f t="shared" si="10"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U79" s="15">
         <f t="shared" si="10"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V79" s="15">
         <f t="shared" si="10"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W79" s="15">
         <f t="shared" si="10"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X79" s="15">
         <f t="shared" si="10"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="15">
         <f t="shared" si="10"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="15">
         <f t="shared" si="10"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA79" s="15">
         <f t="shared" si="10"/>
@@ -6153,7 +7555,7 @@
       </c>
       <c r="AB79" s="15">
         <f t="shared" si="10"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC79" s="15">
         <f t="shared" si="10"/>
@@ -6173,11 +7575,11 @@
       </c>
       <c r="AG79" s="15">
         <f t="shared" si="10"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH79" s="15">
         <f t="shared" si="10"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
@@ -6605,19 +8007,19 @@
       </c>
       <c r="K83" s="15">
         <f t="shared" si="14"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L83" s="15">
         <f t="shared" si="14"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M83" s="15">
         <f t="shared" si="14"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N83" s="15">
         <f t="shared" si="14"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O83" s="15">
         <f t="shared" si="14"/>
@@ -6625,59 +8027,59 @@
       </c>
       <c r="P83" s="15">
         <f t="shared" si="14"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="15">
         <f t="shared" si="14"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R83" s="15">
         <f t="shared" si="14"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S83" s="15">
         <f t="shared" si="14"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T83" s="15">
         <f t="shared" si="14"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U83" s="15">
         <f t="shared" si="14"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V83" s="15">
         <f t="shared" si="14"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W83" s="15">
         <f t="shared" si="14"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X83" s="15">
         <f t="shared" si="14"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="15">
         <f t="shared" si="14"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="15">
         <f t="shared" si="14"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="15">
         <f t="shared" si="14"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="15">
         <f t="shared" si="14"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="15">
         <f t="shared" si="14"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD83" s="15">
         <f t="shared" si="14"/>
@@ -6685,11 +8087,11 @@
       </c>
       <c r="AE83" s="15">
         <f t="shared" si="14"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="15">
         <f t="shared" si="14"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="15">
         <f t="shared" si="14"/>
@@ -6735,19 +8137,19 @@
       </c>
       <c r="K84" s="15">
         <f t="shared" si="15"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L84" s="15">
         <f t="shared" si="15"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M84" s="15">
         <f t="shared" si="15"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N84" s="15">
         <f t="shared" si="15"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O84" s="15">
         <f t="shared" si="15"/>
@@ -6755,59 +8157,59 @@
       </c>
       <c r="P84" s="15">
         <f t="shared" si="15"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="15">
         <f t="shared" si="15"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R84" s="15">
         <f t="shared" si="15"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S84" s="15">
         <f t="shared" si="15"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T84" s="15">
         <f t="shared" si="15"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U84" s="15">
         <f t="shared" si="15"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V84" s="15">
         <f t="shared" si="15"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W84" s="15">
         <f t="shared" si="15"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X84" s="15">
         <f t="shared" si="15"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="15">
         <f t="shared" si="15"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="15">
         <f t="shared" si="15"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="15">
         <f t="shared" si="15"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB84" s="15">
         <f t="shared" si="15"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC84" s="15">
         <f t="shared" si="15"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD84" s="15">
         <f t="shared" si="15"/>
@@ -6815,11 +8217,11 @@
       </c>
       <c r="AE84" s="15">
         <f t="shared" si="15"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="15">
         <f t="shared" si="15"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG84" s="15">
         <f t="shared" si="15"/>
@@ -6865,19 +8267,19 @@
       </c>
       <c r="K85" s="15">
         <f t="shared" si="16"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L85" s="15">
         <f t="shared" si="16"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M85" s="15">
         <f t="shared" si="16"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N85" s="15">
         <f t="shared" si="16"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O85" s="15">
         <f t="shared" si="16"/>
@@ -6885,23 +8287,23 @@
       </c>
       <c r="P85" s="15">
         <f t="shared" si="16"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="15">
         <f t="shared" si="16"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R85" s="15">
         <f t="shared" si="16"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S85" s="15">
         <f t="shared" si="16"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T85" s="15">
         <f t="shared" si="16"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U85" s="15">
         <f t="shared" si="16"/>
@@ -6909,35 +8311,35 @@
       </c>
       <c r="V85" s="15">
         <f t="shared" si="16"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W85" s="15">
         <f t="shared" si="16"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X85" s="15">
         <f t="shared" si="16"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y85" s="15">
         <f t="shared" si="16"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="15">
         <f t="shared" si="16"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA85" s="15">
         <f t="shared" si="16"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB85" s="15">
         <f t="shared" si="16"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC85" s="15">
         <f t="shared" si="16"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD85" s="15">
         <f t="shared" si="16"/>
@@ -6945,11 +8347,11 @@
       </c>
       <c r="AE85" s="15">
         <f t="shared" si="16"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF85" s="15">
         <f t="shared" si="16"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG85" s="15">
         <f t="shared" si="16"/>
@@ -6995,19 +8397,19 @@
       </c>
       <c r="K86" s="15">
         <f t="shared" si="17"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L86" s="15">
         <f t="shared" si="17"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M86" s="15">
         <f t="shared" si="17"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N86" s="15">
         <f t="shared" si="17"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O86" s="15">
         <f t="shared" si="17"/>
@@ -7015,23 +8417,23 @@
       </c>
       <c r="P86" s="15">
         <f t="shared" si="17"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="15">
         <f t="shared" si="17"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R86" s="15">
         <f t="shared" si="17"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S86" s="15">
         <f t="shared" si="17"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T86" s="15">
         <f t="shared" si="17"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U86" s="15">
         <f t="shared" si="17"/>
@@ -7039,35 +8441,35 @@
       </c>
       <c r="V86" s="15">
         <f t="shared" si="17"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W86" s="15">
         <f t="shared" si="17"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X86" s="15">
         <f t="shared" si="17"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="15">
         <f t="shared" si="17"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="15">
         <f t="shared" si="17"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="15">
         <f t="shared" si="17"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="15">
         <f t="shared" si="17"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="15">
         <f t="shared" si="17"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD86" s="15">
         <f t="shared" si="17"/>
@@ -7075,11 +8477,11 @@
       </c>
       <c r="AE86" s="15">
         <f t="shared" si="17"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF86" s="15">
         <f t="shared" si="17"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG86" s="15">
         <f t="shared" si="17"/>
@@ -10765,99 +12167,99 @@
       </c>
       <c r="K115" s="15">
         <f t="shared" si="46"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L115" s="15">
         <f t="shared" si="46"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M115" s="15">
         <f t="shared" si="46"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N115" s="15">
         <f t="shared" si="46"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O115" s="15">
         <f t="shared" si="46"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P115" s="15">
         <f t="shared" si="46"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="15">
         <f t="shared" si="46"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R115" s="15">
         <f t="shared" si="46"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S115" s="15">
         <f t="shared" si="46"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T115" s="15">
         <f t="shared" si="46"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U115" s="15">
         <f t="shared" si="46"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V115" s="15">
         <f t="shared" si="46"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W115" s="15">
         <f t="shared" si="46"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X115" s="15">
         <f t="shared" si="46"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y115" s="15">
         <f t="shared" si="46"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z115" s="15">
         <f t="shared" si="46"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA115" s="15">
         <f t="shared" si="46"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB115" s="15">
         <f t="shared" si="46"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC115" s="15">
         <f t="shared" si="46"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD115" s="15">
         <f t="shared" si="46"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE115" s="15">
         <f t="shared" si="46"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF115" s="15">
         <f t="shared" si="46"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG115" s="15">
         <f t="shared" si="46"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH115" s="15">
         <f t="shared" si="46"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="3:34" x14ac:dyDescent="0.25">
@@ -10895,99 +12297,99 @@
       </c>
       <c r="K116" s="15">
         <f t="shared" si="47"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L116" s="15">
         <f t="shared" si="47"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M116" s="15">
         <f t="shared" si="47"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N116" s="15">
         <f t="shared" si="47"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O116" s="15">
         <f t="shared" si="47"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P116" s="15">
         <f t="shared" si="47"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="15">
         <f t="shared" si="47"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R116" s="15">
         <f t="shared" si="47"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S116" s="15">
         <f t="shared" si="47"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T116" s="15">
         <f t="shared" si="47"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U116" s="15">
         <f t="shared" si="47"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V116" s="15">
         <f t="shared" si="47"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W116" s="15">
         <f t="shared" si="47"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X116" s="15">
         <f t="shared" si="47"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y116" s="15">
         <f t="shared" si="47"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z116" s="15">
         <f t="shared" si="47"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA116" s="15">
         <f t="shared" si="47"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB116" s="15">
         <f t="shared" si="47"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC116" s="15">
         <f t="shared" si="47"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD116" s="15">
         <f t="shared" si="47"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE116" s="15">
         <f t="shared" si="47"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF116" s="15">
         <f t="shared" si="47"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG116" s="15">
         <f t="shared" si="47"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH116" s="15">
         <f t="shared" si="47"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="3:34" x14ac:dyDescent="0.25">
@@ -11025,99 +12427,99 @@
       </c>
       <c r="K117" s="15">
         <f t="shared" si="48"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L117" s="15">
         <f t="shared" si="48"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M117" s="15">
         <f t="shared" si="48"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N117" s="15">
         <f t="shared" si="48"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O117" s="15">
         <f t="shared" si="48"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P117" s="15">
         <f t="shared" si="48"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="15">
         <f t="shared" si="48"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R117" s="15">
         <f t="shared" si="48"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S117" s="15">
         <f t="shared" si="48"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T117" s="15">
         <f t="shared" si="48"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U117" s="15">
         <f t="shared" si="48"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V117" s="15">
         <f t="shared" si="48"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W117" s="15">
         <f t="shared" si="48"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X117" s="15">
         <f t="shared" si="48"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y117" s="15">
         <f t="shared" si="48"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z117" s="15">
         <f t="shared" si="48"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA117" s="15">
         <f t="shared" si="48"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB117" s="15">
         <f t="shared" si="48"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC117" s="15">
         <f t="shared" si="48"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD117" s="15">
         <f t="shared" si="48"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE117" s="15">
         <f t="shared" si="48"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF117" s="15">
         <f t="shared" si="48"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG117" s="15">
         <f t="shared" si="48"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH117" s="15">
         <f t="shared" si="48"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="3:34" x14ac:dyDescent="0.25">
@@ -11155,99 +12557,99 @@
       </c>
       <c r="K118" s="15">
         <f t="shared" si="49"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L118" s="15">
         <f t="shared" si="49"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M118" s="15">
         <f t="shared" si="49"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N118" s="15">
         <f t="shared" si="49"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O118" s="15">
         <f t="shared" si="49"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P118" s="15">
         <f t="shared" si="49"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q118" s="15">
         <f t="shared" si="49"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R118" s="15">
         <f t="shared" si="49"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S118" s="15">
         <f t="shared" si="49"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T118" s="15">
         <f t="shared" si="49"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U118" s="15">
         <f t="shared" si="49"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V118" s="15">
         <f t="shared" si="49"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W118" s="15">
         <f t="shared" si="49"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X118" s="15">
         <f t="shared" si="49"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y118" s="15">
         <f t="shared" si="49"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="15">
         <f t="shared" si="49"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA118" s="15">
         <f t="shared" si="49"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB118" s="15">
         <f t="shared" si="49"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC118" s="15">
         <f t="shared" si="49"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD118" s="15">
         <f t="shared" si="49"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE118" s="15">
         <f t="shared" si="49"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF118" s="15">
         <f t="shared" si="49"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG118" s="15">
         <f t="shared" si="49"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH118" s="15">
         <f t="shared" si="49"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="3:34" x14ac:dyDescent="0.25">
@@ -11285,99 +12687,99 @@
       </c>
       <c r="K119" s="15">
         <f t="shared" si="50"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L119" s="15">
         <f t="shared" si="50"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M119" s="15">
         <f t="shared" si="50"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N119" s="15">
         <f t="shared" si="50"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O119" s="15">
         <f t="shared" si="50"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P119" s="15">
         <f t="shared" si="50"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="15">
         <f t="shared" si="50"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R119" s="15">
         <f t="shared" si="50"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S119" s="15">
         <f t="shared" si="50"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T119" s="15">
         <f t="shared" si="50"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U119" s="15">
         <f t="shared" si="50"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V119" s="15">
         <f t="shared" si="50"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W119" s="15">
         <f t="shared" si="50"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X119" s="15">
         <f t="shared" si="50"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y119" s="15">
         <f t="shared" si="50"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z119" s="15">
         <f t="shared" si="50"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA119" s="15">
         <f t="shared" si="50"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB119" s="15">
         <f t="shared" si="50"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC119" s="15">
         <f t="shared" si="50"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD119" s="15">
         <f t="shared" si="50"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE119" s="15">
         <f t="shared" si="50"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF119" s="15">
         <f t="shared" si="50"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG119" s="15">
         <f t="shared" si="50"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH119" s="15">
         <f t="shared" si="50"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="3:34" x14ac:dyDescent="0.25">
@@ -11415,99 +12817,99 @@
       </c>
       <c r="K120" s="15">
         <f t="shared" si="51"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L120" s="15">
         <f t="shared" si="51"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M120" s="15">
         <f t="shared" si="51"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N120" s="15">
         <f t="shared" si="51"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O120" s="15">
         <f t="shared" si="51"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P120" s="15">
         <f t="shared" si="51"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="15">
         <f t="shared" si="51"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R120" s="15">
         <f t="shared" si="51"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S120" s="15">
         <f t="shared" si="51"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T120" s="15">
         <f t="shared" si="51"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U120" s="15">
         <f t="shared" si="51"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V120" s="15">
         <f t="shared" si="51"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W120" s="15">
         <f t="shared" si="51"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X120" s="15">
         <f t="shared" si="51"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y120" s="15">
         <f t="shared" si="51"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="15">
         <f t="shared" si="51"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA120" s="15">
         <f t="shared" si="51"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB120" s="15">
         <f t="shared" si="51"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC120" s="15">
         <f t="shared" si="51"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD120" s="15">
         <f t="shared" si="51"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE120" s="15">
         <f t="shared" si="51"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF120" s="15">
         <f t="shared" si="51"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG120" s="15">
         <f t="shared" si="51"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH120" s="15">
         <f t="shared" si="51"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="3:34" x14ac:dyDescent="0.25">
@@ -11545,99 +12947,99 @@
       </c>
       <c r="K121" s="15">
         <f t="shared" si="52"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L121" s="15">
         <f t="shared" si="52"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M121" s="15">
         <f t="shared" si="52"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N121" s="15">
         <f t="shared" si="52"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O121" s="15">
         <f t="shared" si="52"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P121" s="15">
         <f t="shared" si="52"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="15">
         <f t="shared" si="52"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R121" s="15">
         <f t="shared" si="52"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S121" s="15">
         <f t="shared" si="52"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T121" s="15">
         <f t="shared" si="52"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U121" s="15">
         <f t="shared" si="52"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V121" s="15">
         <f t="shared" si="52"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W121" s="15">
         <f t="shared" si="52"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X121" s="15">
         <f t="shared" si="52"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y121" s="15">
         <f t="shared" si="52"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z121" s="15">
         <f t="shared" si="52"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA121" s="15">
         <f t="shared" si="52"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB121" s="15">
         <f t="shared" si="52"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC121" s="15">
         <f t="shared" si="52"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD121" s="15">
         <f t="shared" si="52"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE121" s="15">
         <f t="shared" si="52"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF121" s="15">
         <f t="shared" si="52"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG121" s="15">
         <f t="shared" si="52"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH121" s="15">
         <f t="shared" si="52"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="3:34" x14ac:dyDescent="0.25">
@@ -11675,99 +13077,99 @@
       </c>
       <c r="K122" s="15">
         <f t="shared" si="53"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L122" s="15">
         <f t="shared" si="53"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M122" s="15">
         <f t="shared" si="53"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N122" s="15">
         <f t="shared" si="53"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O122" s="15">
         <f t="shared" si="53"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P122" s="15">
         <f t="shared" si="53"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="15">
         <f t="shared" si="53"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R122" s="15">
         <f t="shared" si="53"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S122" s="15">
         <f t="shared" si="53"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T122" s="15">
         <f t="shared" si="53"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U122" s="15">
         <f t="shared" si="53"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V122" s="15">
         <f t="shared" si="53"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W122" s="15">
         <f t="shared" si="53"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X122" s="15">
         <f t="shared" si="53"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y122" s="15">
         <f t="shared" si="53"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z122" s="15">
         <f t="shared" si="53"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA122" s="15">
         <f t="shared" si="53"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB122" s="15">
         <f t="shared" si="53"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC122" s="15">
         <f t="shared" si="53"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD122" s="15">
         <f t="shared" si="53"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE122" s="15">
         <f t="shared" si="53"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF122" s="15">
         <f t="shared" si="53"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG122" s="15">
         <f t="shared" si="53"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH122" s="15">
         <f t="shared" si="53"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="3:34" x14ac:dyDescent="0.25">
@@ -11805,99 +13207,99 @@
       </c>
       <c r="K123" s="15">
         <f t="shared" si="54"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L123" s="15">
         <f t="shared" si="54"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M123" s="15">
         <f t="shared" si="54"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N123" s="15">
         <f t="shared" si="54"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O123" s="15">
         <f t="shared" si="54"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P123" s="15">
         <f t="shared" si="54"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q123" s="15">
         <f t="shared" si="54"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R123" s="15">
         <f t="shared" si="54"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S123" s="15">
         <f t="shared" si="54"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T123" s="15">
         <f t="shared" si="54"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U123" s="15">
         <f t="shared" si="54"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V123" s="15">
         <f t="shared" si="54"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W123" s="15">
         <f t="shared" si="54"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X123" s="15">
         <f t="shared" si="54"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y123" s="15">
         <f t="shared" si="54"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="15">
         <f t="shared" si="54"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA123" s="15">
         <f t="shared" si="54"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB123" s="15">
         <f t="shared" si="54"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC123" s="15">
         <f t="shared" si="54"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD123" s="15">
         <f t="shared" si="54"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE123" s="15">
         <f t="shared" si="54"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF123" s="15">
         <f t="shared" si="54"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG123" s="15">
         <f t="shared" si="54"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH123" s="15">
         <f t="shared" si="54"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="3:34" x14ac:dyDescent="0.25">
@@ -11935,99 +13337,99 @@
       </c>
       <c r="K124" s="15">
         <f t="shared" si="55"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L124" s="15">
         <f t="shared" si="55"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M124" s="15">
         <f t="shared" si="55"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N124" s="15">
         <f t="shared" si="55"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O124" s="15">
         <f t="shared" si="55"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P124" s="15">
         <f t="shared" si="55"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="15">
         <f t="shared" si="55"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R124" s="15">
         <f t="shared" si="55"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S124" s="15">
         <f t="shared" si="55"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T124" s="15">
         <f t="shared" si="55"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U124" s="15">
         <f t="shared" si="55"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V124" s="15">
         <f t="shared" si="55"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W124" s="15">
         <f t="shared" si="55"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X124" s="15">
         <f t="shared" si="55"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y124" s="15">
         <f t="shared" si="55"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z124" s="15">
         <f t="shared" si="55"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA124" s="15">
         <f t="shared" si="55"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB124" s="15">
         <f t="shared" si="55"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC124" s="15">
         <f t="shared" si="55"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD124" s="15">
         <f t="shared" si="55"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE124" s="15">
         <f t="shared" si="55"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF124" s="15">
         <f t="shared" si="55"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG124" s="15">
         <f t="shared" si="55"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH124" s="15">
         <f t="shared" si="55"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="3:34" x14ac:dyDescent="0.25">
@@ -12065,99 +13467,99 @@
       </c>
       <c r="K125" s="15">
         <f t="shared" si="56"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L125" s="15">
         <f t="shared" si="56"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M125" s="15">
         <f t="shared" si="56"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N125" s="15">
         <f t="shared" si="56"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O125" s="15">
         <f t="shared" si="56"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P125" s="15">
         <f t="shared" si="56"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="15">
         <f t="shared" si="56"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R125" s="15">
         <f t="shared" si="56"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S125" s="15">
         <f t="shared" si="56"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T125" s="15">
         <f t="shared" si="56"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U125" s="15">
         <f t="shared" si="56"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V125" s="15">
         <f t="shared" si="56"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W125" s="15">
         <f t="shared" si="56"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X125" s="15">
         <f t="shared" si="56"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y125" s="15">
         <f t="shared" si="56"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z125" s="15">
         <f t="shared" si="56"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA125" s="15">
         <f t="shared" si="56"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB125" s="15">
         <f t="shared" si="56"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC125" s="15">
         <f t="shared" si="56"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD125" s="15">
         <f t="shared" si="56"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE125" s="15">
         <f t="shared" si="56"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF125" s="15">
         <f t="shared" si="56"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG125" s="15">
         <f t="shared" si="56"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH125" s="15">
         <f t="shared" si="56"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="3:34" x14ac:dyDescent="0.25">
@@ -12195,99 +13597,99 @@
       </c>
       <c r="K126" s="15">
         <f t="shared" si="57"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L126" s="15">
         <f t="shared" si="57"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M126" s="15">
         <f t="shared" si="57"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N126" s="15">
         <f t="shared" si="57"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O126" s="15">
         <f t="shared" si="57"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P126" s="15">
         <f t="shared" si="57"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q126" s="15">
         <f t="shared" si="57"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R126" s="15">
         <f t="shared" si="57"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S126" s="15">
         <f t="shared" si="57"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T126" s="15">
         <f t="shared" si="57"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U126" s="15">
         <f t="shared" si="57"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V126" s="15">
         <f t="shared" si="57"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W126" s="15">
         <f t="shared" si="57"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X126" s="15">
         <f t="shared" si="57"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y126" s="15">
         <f t="shared" si="57"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z126" s="15">
         <f t="shared" si="57"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA126" s="15">
         <f t="shared" si="57"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB126" s="15">
         <f t="shared" si="57"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC126" s="15">
         <f t="shared" si="57"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD126" s="15">
         <f t="shared" si="57"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE126" s="15">
         <f t="shared" si="57"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF126" s="15">
         <f t="shared" si="57"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG126" s="15">
         <f t="shared" si="57"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH126" s="15">
         <f t="shared" si="57"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="3:34" x14ac:dyDescent="0.25">
@@ -12325,99 +13727,99 @@
       </c>
       <c r="K127" s="15">
         <f t="shared" si="58"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L127" s="15">
         <f t="shared" si="58"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M127" s="15">
         <f t="shared" si="58"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N127" s="15">
         <f t="shared" si="58"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O127" s="15">
         <f t="shared" si="58"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P127" s="15">
         <f t="shared" si="58"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q127" s="15">
         <f t="shared" si="58"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R127" s="15">
         <f t="shared" si="58"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S127" s="15">
         <f t="shared" si="58"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T127" s="15">
         <f t="shared" si="58"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U127" s="15">
         <f t="shared" si="58"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V127" s="15">
         <f t="shared" si="58"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W127" s="15">
         <f t="shared" si="58"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X127" s="15">
         <f t="shared" si="58"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="15">
         <f t="shared" si="58"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z127" s="15">
         <f t="shared" si="58"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA127" s="15">
         <f t="shared" si="58"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB127" s="15">
         <f t="shared" si="58"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC127" s="15">
         <f t="shared" si="58"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD127" s="15">
         <f t="shared" si="58"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE127" s="15">
         <f t="shared" si="58"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF127" s="15">
         <f t="shared" si="58"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG127" s="15">
         <f t="shared" si="58"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH127" s="15">
         <f t="shared" si="58"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="3:34" x14ac:dyDescent="0.25">
@@ -12455,99 +13857,99 @@
       </c>
       <c r="K128" s="15">
         <f t="shared" si="59"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L128" s="15">
         <f t="shared" si="59"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M128" s="15">
         <f t="shared" si="59"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N128" s="15">
         <f t="shared" si="59"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O128" s="15">
         <f t="shared" si="59"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P128" s="15">
         <f t="shared" si="59"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q128" s="15">
         <f t="shared" si="59"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R128" s="15">
         <f t="shared" si="59"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S128" s="15">
         <f t="shared" si="59"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T128" s="15">
         <f t="shared" si="59"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U128" s="15">
         <f t="shared" si="59"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V128" s="15">
         <f t="shared" si="59"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W128" s="15">
         <f t="shared" si="59"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X128" s="15">
         <f t="shared" si="59"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="15">
         <f t="shared" si="59"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z128" s="15">
         <f t="shared" si="59"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA128" s="15">
         <f t="shared" si="59"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB128" s="15">
         <f t="shared" si="59"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC128" s="15">
         <f t="shared" si="59"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD128" s="15">
         <f t="shared" si="59"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE128" s="15">
         <f t="shared" si="59"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF128" s="15">
         <f t="shared" si="59"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG128" s="15">
         <f t="shared" si="59"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH128" s="15">
         <f t="shared" si="59"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="3:34" x14ac:dyDescent="0.25">
@@ -12585,99 +13987,99 @@
       </c>
       <c r="K129" s="15">
         <f t="shared" si="60"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L129" s="15">
         <f t="shared" si="60"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M129" s="15">
         <f t="shared" si="60"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N129" s="15">
         <f t="shared" si="60"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O129" s="15">
         <f t="shared" si="60"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P129" s="15">
         <f t="shared" si="60"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="15">
         <f t="shared" si="60"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R129" s="15">
         <f t="shared" si="60"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S129" s="15">
         <f t="shared" si="60"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T129" s="15">
         <f t="shared" si="60"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U129" s="15">
         <f t="shared" si="60"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V129" s="15">
         <f t="shared" si="60"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W129" s="15">
         <f t="shared" si="60"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X129" s="15">
         <f t="shared" si="60"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y129" s="15">
         <f t="shared" si="60"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z129" s="15">
         <f t="shared" si="60"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA129" s="15">
         <f t="shared" si="60"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB129" s="15">
         <f t="shared" si="60"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC129" s="15">
         <f t="shared" si="60"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD129" s="15">
         <f t="shared" si="60"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE129" s="15">
         <f t="shared" si="60"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF129" s="15">
         <f t="shared" si="60"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG129" s="15">
         <f t="shared" si="60"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH129" s="15">
         <f t="shared" si="60"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="3:34" x14ac:dyDescent="0.25">
@@ -12715,99 +14117,99 @@
       </c>
       <c r="K130" s="15">
         <f t="shared" si="61"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L130" s="15">
         <f t="shared" si="61"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M130" s="15">
         <f t="shared" si="61"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N130" s="15">
         <f t="shared" si="61"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O130" s="15">
         <f t="shared" si="61"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P130" s="15">
         <f t="shared" si="61"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="15">
         <f t="shared" si="61"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R130" s="15">
         <f t="shared" si="61"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S130" s="15">
         <f t="shared" si="61"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T130" s="15">
         <f t="shared" si="61"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U130" s="15">
         <f t="shared" si="61"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V130" s="15">
         <f t="shared" si="61"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W130" s="15">
         <f t="shared" si="61"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X130" s="15">
         <f t="shared" si="61"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y130" s="15">
         <f t="shared" si="61"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z130" s="15">
         <f t="shared" si="61"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA130" s="15">
         <f t="shared" si="61"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB130" s="15">
         <f t="shared" si="61"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC130" s="15">
         <f t="shared" si="61"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD130" s="15">
         <f t="shared" si="61"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE130" s="15">
         <f t="shared" si="61"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF130" s="15">
         <f t="shared" si="61"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG130" s="15">
         <f t="shared" si="61"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH130" s="15">
         <f t="shared" si="61"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="3:34" x14ac:dyDescent="0.25">
@@ -12845,99 +14247,99 @@
       </c>
       <c r="K131" s="15">
         <f t="shared" si="62"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L131" s="15">
         <f t="shared" si="62"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M131" s="15">
         <f t="shared" si="62"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N131" s="15">
         <f t="shared" si="62"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O131" s="15">
         <f t="shared" si="62"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P131" s="15">
         <f t="shared" si="62"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="15">
         <f t="shared" si="62"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R131" s="15">
         <f t="shared" si="62"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S131" s="15">
         <f t="shared" si="62"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T131" s="15">
         <f t="shared" si="62"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U131" s="15">
         <f t="shared" si="62"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V131" s="15">
         <f t="shared" si="62"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W131" s="15">
         <f t="shared" si="62"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X131" s="15">
         <f t="shared" si="62"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y131" s="15">
         <f t="shared" si="62"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z131" s="15">
         <f t="shared" si="62"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA131" s="15">
         <f t="shared" si="62"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB131" s="15">
         <f t="shared" si="62"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC131" s="15">
         <f t="shared" si="62"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD131" s="15">
         <f t="shared" si="62"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE131" s="15">
         <f t="shared" si="62"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF131" s="15">
         <f t="shared" si="62"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG131" s="15">
         <f t="shared" si="62"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH131" s="15">
         <f t="shared" si="62"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="3:34" x14ac:dyDescent="0.25">
@@ -12975,99 +14377,99 @@
       </c>
       <c r="K132" s="15">
         <f t="shared" si="63"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L132" s="15">
         <f t="shared" si="63"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M132" s="15">
         <f t="shared" si="63"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N132" s="15">
         <f t="shared" si="63"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O132" s="15">
         <f t="shared" si="63"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P132" s="15">
         <f t="shared" si="63"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q132" s="15">
         <f t="shared" si="63"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R132" s="15">
         <f t="shared" si="63"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S132" s="15">
         <f t="shared" si="63"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T132" s="15">
         <f t="shared" si="63"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U132" s="15">
         <f t="shared" si="63"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V132" s="15">
         <f t="shared" si="63"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W132" s="15">
         <f t="shared" si="63"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X132" s="15">
         <f t="shared" si="63"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y132" s="15">
         <f t="shared" si="63"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z132" s="15">
         <f t="shared" si="63"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA132" s="15">
         <f t="shared" si="63"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB132" s="15">
         <f t="shared" si="63"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC132" s="15">
         <f t="shared" si="63"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD132" s="15">
         <f t="shared" si="63"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE132" s="15">
         <f t="shared" si="63"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF132" s="15">
         <f t="shared" si="63"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG132" s="15">
         <f t="shared" si="63"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH132" s="15">
         <f t="shared" si="63"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="3:34" x14ac:dyDescent="0.25">
@@ -13105,99 +14507,99 @@
       </c>
       <c r="K133" s="15">
         <f t="shared" si="64"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L133" s="15">
         <f t="shared" si="64"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M133" s="15">
         <f t="shared" si="64"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N133" s="15">
         <f t="shared" si="64"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O133" s="15">
         <f t="shared" si="64"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P133" s="15">
         <f t="shared" si="64"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="15">
         <f t="shared" si="64"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R133" s="15">
         <f t="shared" si="64"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S133" s="15">
         <f t="shared" si="64"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T133" s="15">
         <f t="shared" si="64"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U133" s="15">
         <f t="shared" si="64"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V133" s="15">
         <f t="shared" si="64"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W133" s="15">
         <f t="shared" si="64"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X133" s="15">
         <f t="shared" si="64"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y133" s="15">
         <f t="shared" si="64"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z133" s="15">
         <f t="shared" si="64"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA133" s="15">
         <f t="shared" si="64"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB133" s="15">
         <f t="shared" si="64"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC133" s="15">
         <f t="shared" si="64"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD133" s="15">
         <f t="shared" si="64"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE133" s="15">
         <f t="shared" si="64"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF133" s="15">
         <f t="shared" si="64"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG133" s="15">
         <f t="shared" si="64"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH133" s="15">
         <f t="shared" si="64"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="3:34" x14ac:dyDescent="0.25">
@@ -13235,99 +14637,99 @@
       </c>
       <c r="K134" s="15">
         <f t="shared" si="65"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L134" s="15">
         <f t="shared" si="65"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M134" s="15">
         <f t="shared" si="65"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N134" s="15">
         <f t="shared" si="65"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O134" s="15">
         <f t="shared" si="65"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P134" s="15">
         <f t="shared" si="65"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="15">
         <f t="shared" si="65"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R134" s="15">
         <f t="shared" si="65"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S134" s="15">
         <f t="shared" si="65"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T134" s="15">
         <f t="shared" si="65"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U134" s="15">
         <f t="shared" si="65"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V134" s="15">
         <f t="shared" si="65"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W134" s="15">
         <f t="shared" si="65"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X134" s="15">
         <f t="shared" si="65"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y134" s="15">
         <f t="shared" si="65"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z134" s="15">
         <f t="shared" si="65"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA134" s="15">
         <f t="shared" si="65"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB134" s="15">
         <f t="shared" si="65"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC134" s="15">
         <f t="shared" si="65"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD134" s="15">
         <f t="shared" si="65"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE134" s="15">
         <f t="shared" si="65"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF134" s="15">
         <f t="shared" si="65"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG134" s="15">
         <f t="shared" si="65"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH134" s="15">
         <f t="shared" si="65"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="3:34" x14ac:dyDescent="0.25">
@@ -13365,99 +14767,99 @@
       </c>
       <c r="K135" s="15">
         <f t="shared" si="66"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L135" s="15">
         <f t="shared" si="66"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M135" s="15">
         <f t="shared" si="66"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N135" s="15">
         <f t="shared" si="66"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O135" s="15">
         <f t="shared" si="66"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P135" s="15">
         <f t="shared" si="66"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q135" s="15">
         <f t="shared" si="66"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R135" s="15">
         <f t="shared" si="66"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S135" s="15">
         <f t="shared" si="66"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T135" s="15">
         <f t="shared" si="66"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U135" s="15">
         <f t="shared" si="66"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V135" s="15">
         <f t="shared" si="66"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W135" s="15">
         <f t="shared" si="66"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X135" s="15">
         <f t="shared" si="66"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y135" s="15">
         <f t="shared" si="66"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z135" s="15">
         <f t="shared" si="66"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA135" s="15">
         <f t="shared" si="66"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB135" s="15">
         <f t="shared" si="66"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC135" s="15">
         <f t="shared" si="66"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD135" s="15">
         <f t="shared" si="66"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE135" s="15">
         <f t="shared" si="66"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF135" s="15">
         <f t="shared" si="66"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG135" s="15">
         <f t="shared" si="66"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH135" s="15">
         <f t="shared" si="66"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="3:34" x14ac:dyDescent="0.25">
@@ -13495,99 +14897,99 @@
       </c>
       <c r="K136" s="15">
         <f t="shared" si="67"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L136" s="15">
         <f t="shared" si="67"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M136" s="15">
         <f t="shared" si="67"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N136" s="15">
         <f t="shared" si="67"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O136" s="15">
         <f t="shared" si="67"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P136" s="15">
         <f t="shared" si="67"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q136" s="15">
         <f t="shared" si="67"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R136" s="15">
         <f t="shared" si="67"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S136" s="15">
         <f t="shared" si="67"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T136" s="15">
         <f t="shared" si="67"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U136" s="15">
         <f t="shared" si="67"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V136" s="15">
         <f t="shared" si="67"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W136" s="15">
         <f t="shared" si="67"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X136" s="15">
         <f t="shared" si="67"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y136" s="15">
         <f t="shared" si="67"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z136" s="15">
         <f t="shared" si="67"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA136" s="15">
         <f t="shared" si="67"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB136" s="15">
         <f t="shared" si="67"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC136" s="15">
         <f t="shared" si="67"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD136" s="15">
         <f t="shared" si="67"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE136" s="15">
         <f t="shared" si="67"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF136" s="15">
         <f t="shared" si="67"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG136" s="15">
         <f t="shared" si="67"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH136" s="15">
         <f t="shared" si="67"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="3:34" x14ac:dyDescent="0.25">
@@ -13625,99 +15027,99 @@
       </c>
       <c r="K137" s="15">
         <f t="shared" si="68"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L137" s="15">
         <f t="shared" si="68"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M137" s="15">
         <f t="shared" si="68"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N137" s="15">
         <f t="shared" si="68"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O137" s="15">
         <f t="shared" si="68"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P137" s="15">
         <f t="shared" si="68"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q137" s="15">
         <f t="shared" si="68"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R137" s="15">
         <f t="shared" si="68"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S137" s="15">
         <f t="shared" si="68"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T137" s="15">
         <f t="shared" si="68"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U137" s="15">
         <f t="shared" si="68"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V137" s="15">
         <f t="shared" si="68"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W137" s="15">
         <f t="shared" si="68"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X137" s="15">
         <f t="shared" si="68"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y137" s="15">
         <f t="shared" si="68"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z137" s="15">
         <f t="shared" si="68"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA137" s="15">
         <f t="shared" si="68"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB137" s="15">
         <f t="shared" si="68"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC137" s="15">
         <f t="shared" si="68"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD137" s="15">
         <f t="shared" si="68"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE137" s="15">
         <f t="shared" si="68"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF137" s="15">
         <f t="shared" si="68"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG137" s="15">
         <f t="shared" si="68"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH137" s="15">
         <f t="shared" si="68"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="3:34" x14ac:dyDescent="0.25">
@@ -13755,99 +15157,99 @@
       </c>
       <c r="K138" s="15">
         <f t="shared" si="69"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L138" s="15">
         <f t="shared" si="69"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="M138" s="15">
         <f t="shared" si="69"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="N138" s="15">
         <f t="shared" si="69"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="O138" s="15">
         <f t="shared" si="69"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="P138" s="15">
         <f t="shared" si="69"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="Q138" s="15">
         <f t="shared" si="69"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="R138" s="15">
         <f t="shared" si="69"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S138" s="15">
         <f t="shared" si="69"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="T138" s="15">
         <f t="shared" si="69"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="U138" s="15">
         <f t="shared" si="69"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="V138" s="15">
         <f t="shared" si="69"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="W138" s="15">
         <f t="shared" si="69"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="X138" s="15">
         <f t="shared" si="69"/>
-        <v>2097152</v>
+        <v>0</v>
       </c>
       <c r="Y138" s="15">
         <f t="shared" si="69"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="Z138" s="15">
         <f t="shared" si="69"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="AA138" s="15">
         <f t="shared" si="69"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="AB138" s="15">
         <f t="shared" si="69"/>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="AC138" s="15">
         <f t="shared" si="69"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="AD138" s="15">
         <f t="shared" si="69"/>
-        <v>134217728</v>
+        <v>0</v>
       </c>
       <c r="AE138" s="15">
         <f t="shared" si="69"/>
-        <v>268435456</v>
+        <v>0</v>
       </c>
       <c r="AF138" s="15">
         <f t="shared" si="69"/>
-        <v>536870912</v>
+        <v>0</v>
       </c>
       <c r="AG138" s="15">
         <f t="shared" si="69"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="AH138" s="15">
         <f t="shared" si="69"/>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/control LUT generator.xlsx
+++ b/control LUT generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\Downloads\8 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58AB4FC0-EE9E-4AF1-96A0-C244ECC4ADC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E26838CA-8631-4A0F-B65D-621B56511958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DAB1FA04-CE66-4B0E-BC0E-6E0D84A24BB7}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C70AF1-ED50-4B9F-9B65-C4215ACAA671}">
   <dimension ref="A1:AN138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+    <sheetView tabSelected="1" topLeftCell="J35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5211,13 +5211,13 @@
       <c r="AF45" s="24"/>
       <c r="AG45" s="24"/>
       <c r="AH45" s="24"/>
-      <c r="AJ45" t="e">
+      <c r="AJ45">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK45" t="e">
+        <v>4294967040</v>
+      </c>
+      <c r="AK45" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>FFFFFF00</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5276,13 +5276,13 @@
       <c r="AF46" s="24"/>
       <c r="AG46" s="24"/>
       <c r="AH46" s="24"/>
-      <c r="AJ46" t="e">
+      <c r="AJ46">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK46" t="e">
+        <v>4294967040</v>
+      </c>
+      <c r="AK46" t="str">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>FFFFFF00</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -13134,263 +13134,263 @@
       </c>
     </row>
     <row r="115" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,C$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,D$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,E$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,F$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,G$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,H$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,I$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,J$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,K$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,L$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,M$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,N$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,O$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,P$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,Q$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,R$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,S$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,T$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,U$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,V$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,W$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,X$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,Y$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,Z$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AA$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AB$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AC$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AD$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AE$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AF$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AG$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH115" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AH$2)),#REF!)</f>
-        <v>#REF!</v>
+      <c r="C115" s="15">
+        <f xml:space="preserve"> PRODUCT((POWER(2,C$2)),C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="15">
+        <f t="shared" ref="D115:AH115" si="45" xml:space="preserve"> PRODUCT((POWER(2,D$2)),D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="15">
+        <f t="shared" si="45"/>
+        <v>256</v>
+      </c>
+      <c r="L115" s="15">
+        <f t="shared" si="45"/>
+        <v>512</v>
+      </c>
+      <c r="M115" s="15">
+        <f t="shared" si="45"/>
+        <v>1024</v>
+      </c>
+      <c r="N115" s="15">
+        <f t="shared" si="45"/>
+        <v>2048</v>
+      </c>
+      <c r="O115" s="15">
+        <f t="shared" si="45"/>
+        <v>4096</v>
+      </c>
+      <c r="P115" s="15">
+        <f t="shared" si="45"/>
+        <v>8192</v>
+      </c>
+      <c r="Q115" s="15">
+        <f t="shared" si="45"/>
+        <v>16384</v>
+      </c>
+      <c r="R115" s="15">
+        <f t="shared" si="45"/>
+        <v>32768</v>
+      </c>
+      <c r="S115" s="15">
+        <f t="shared" si="45"/>
+        <v>65536</v>
+      </c>
+      <c r="T115" s="15">
+        <f t="shared" si="45"/>
+        <v>131072</v>
+      </c>
+      <c r="U115" s="15">
+        <f t="shared" si="45"/>
+        <v>262144</v>
+      </c>
+      <c r="V115" s="15">
+        <f t="shared" si="45"/>
+        <v>524288</v>
+      </c>
+      <c r="W115" s="15">
+        <f t="shared" si="45"/>
+        <v>1048576</v>
+      </c>
+      <c r="X115" s="15">
+        <f t="shared" si="45"/>
+        <v>2097152</v>
+      </c>
+      <c r="Y115" s="15">
+        <f t="shared" si="45"/>
+        <v>4194304</v>
+      </c>
+      <c r="Z115" s="15">
+        <f t="shared" si="45"/>
+        <v>8388608</v>
+      </c>
+      <c r="AA115" s="15">
+        <f t="shared" si="45"/>
+        <v>16777216</v>
+      </c>
+      <c r="AB115" s="15">
+        <f t="shared" si="45"/>
+        <v>33554432</v>
+      </c>
+      <c r="AC115" s="15">
+        <f t="shared" si="45"/>
+        <v>67108864</v>
+      </c>
+      <c r="AD115" s="15">
+        <f t="shared" si="45"/>
+        <v>134217728</v>
+      </c>
+      <c r="AE115" s="15">
+        <f t="shared" si="45"/>
+        <v>268435456</v>
+      </c>
+      <c r="AF115" s="15">
+        <f t="shared" si="45"/>
+        <v>536870912</v>
+      </c>
+      <c r="AG115" s="15">
+        <f t="shared" si="45"/>
+        <v>1073741824</v>
+      </c>
+      <c r="AH115" s="15">
+        <f t="shared" si="45"/>
+        <v>2147483648</v>
       </c>
     </row>
     <row r="116" spans="3:34" x14ac:dyDescent="0.25">
-      <c r="C116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,C$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,D$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,E$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,F$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,G$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,H$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,I$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,J$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,K$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,L$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,M$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,N$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,O$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,P$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,Q$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,R$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,S$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,T$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,U$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,V$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,W$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,X$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,Y$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,Z$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AA$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AB$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AC$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AD$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AE$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AF$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AG$2)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH116" s="15" t="e">
-        <f xml:space="preserve"> PRODUCT((POWER(2,AH$2)),#REF!)</f>
-        <v>#REF!</v>
+      <c r="C116" s="15">
+        <f xml:space="preserve"> PRODUCT((POWER(2,C$2)),C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="15">
+        <f t="shared" ref="D116:AH116" si="46" xml:space="preserve"> PRODUCT((POWER(2,D$2)),D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="15">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="15">
+        <f t="shared" si="46"/>
+        <v>256</v>
+      </c>
+      <c r="L116" s="15">
+        <f t="shared" si="46"/>
+        <v>512</v>
+      </c>
+      <c r="M116" s="15">
+        <f t="shared" si="46"/>
+        <v>1024</v>
+      </c>
+      <c r="N116" s="15">
+        <f t="shared" si="46"/>
+        <v>2048</v>
+      </c>
+      <c r="O116" s="15">
+        <f t="shared" si="46"/>
+        <v>4096</v>
+      </c>
+      <c r="P116" s="15">
+        <f t="shared" si="46"/>
+        <v>8192</v>
+      </c>
+      <c r="Q116" s="15">
+        <f t="shared" si="46"/>
+        <v>16384</v>
+      </c>
+      <c r="R116" s="15">
+        <f t="shared" si="46"/>
+        <v>32768</v>
+      </c>
+      <c r="S116" s="15">
+        <f t="shared" si="46"/>
+        <v>65536</v>
+      </c>
+      <c r="T116" s="15">
+        <f t="shared" si="46"/>
+        <v>131072</v>
+      </c>
+      <c r="U116" s="15">
+        <f t="shared" si="46"/>
+        <v>262144</v>
+      </c>
+      <c r="V116" s="15">
+        <f t="shared" si="46"/>
+        <v>524288</v>
+      </c>
+      <c r="W116" s="15">
+        <f t="shared" si="46"/>
+        <v>1048576</v>
+      </c>
+      <c r="X116" s="15">
+        <f t="shared" si="46"/>
+        <v>2097152</v>
+      </c>
+      <c r="Y116" s="15">
+        <f t="shared" si="46"/>
+        <v>4194304</v>
+      </c>
+      <c r="Z116" s="15">
+        <f t="shared" si="46"/>
+        <v>8388608</v>
+      </c>
+      <c r="AA116" s="15">
+        <f t="shared" si="46"/>
+        <v>16777216</v>
+      </c>
+      <c r="AB116" s="15">
+        <f t="shared" si="46"/>
+        <v>33554432</v>
+      </c>
+      <c r="AC116" s="15">
+        <f t="shared" si="46"/>
+        <v>67108864</v>
+      </c>
+      <c r="AD116" s="15">
+        <f t="shared" si="46"/>
+        <v>134217728</v>
+      </c>
+      <c r="AE116" s="15">
+        <f t="shared" si="46"/>
+        <v>268435456</v>
+      </c>
+      <c r="AF116" s="15">
+        <f t="shared" si="46"/>
+        <v>536870912</v>
+      </c>
+      <c r="AG116" s="15">
+        <f t="shared" si="46"/>
+        <v>1073741824</v>
+      </c>
+      <c r="AH116" s="15">
+        <f t="shared" si="46"/>
+        <v>2147483648</v>
       </c>
     </row>
     <row r="117" spans="3:34" x14ac:dyDescent="0.25">
@@ -13399,127 +13399,127 @@
         <v>0</v>
       </c>
       <c r="D117" s="15">
-        <f t="shared" ref="D117:AH117" si="45">PRODUCT((POWER(2,D$2)), D47)</f>
+        <f t="shared" ref="D117:AH117" si="47">PRODUCT((POWER(2,D$2)), D47)</f>
         <v>0</v>
       </c>
       <c r="E117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="R117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="U117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="W117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="X117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AA117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AB117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AC117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AD117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AE117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AF117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AG117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AH117" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -13529,127 +13529,127 @@
         <v>0</v>
       </c>
       <c r="D118" s="15">
-        <f t="shared" ref="D118:AH118" si="46">PRODUCT((POWER(2,D$2)), D48)</f>
+        <f t="shared" ref="D118:AH118" si="48">PRODUCT((POWER(2,D$2)), D48)</f>
         <v>0</v>
       </c>
       <c r="E118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="U118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="X118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AA118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AB118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AC118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AD118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AF118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AG118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH118" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -13659,127 +13659,127 @@
         <v>0</v>
       </c>
       <c r="D119" s="15">
-        <f t="shared" ref="D119:AH119" si="47">PRODUCT((POWER(2,D$2)), D49)</f>
+        <f t="shared" ref="D119:AH119" si="49">PRODUCT((POWER(2,D$2)), D49)</f>
         <v>0</v>
       </c>
       <c r="E119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AA119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AC119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AD119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AE119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AF119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AG119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AH119" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -13789,127 +13789,127 @@
         <v>0</v>
       </c>
       <c r="D120" s="15">
-        <f t="shared" ref="D120:AH120" si="48">PRODUCT((POWER(2,D$2)), D50)</f>
+        <f t="shared" ref="D120:AH120" si="50">PRODUCT((POWER(2,D$2)), D50)</f>
         <v>0</v>
       </c>
       <c r="E120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="W120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="X120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Y120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Z120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AA120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AB120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH120" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -13919,127 +13919,127 @@
         <v>0</v>
       </c>
       <c r="D121" s="15">
-        <f t="shared" ref="D121:AH121" si="49">PRODUCT((POWER(2,D$2)), D51)</f>
+        <f t="shared" ref="D121:AH121" si="51">PRODUCT((POWER(2,D$2)), D51)</f>
         <v>0</v>
       </c>
       <c r="E121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AA121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AB121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AC121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AD121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AE121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AF121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH121" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -14049,127 +14049,127 @@
         <v>0</v>
       </c>
       <c r="D122" s="15">
-        <f t="shared" ref="D122:AH122" si="50">PRODUCT((POWER(2,D$2)), D52)</f>
+        <f t="shared" ref="D122:AH122" si="52">PRODUCT((POWER(2,D$2)), D52)</f>
         <v>0</v>
       </c>
       <c r="E122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AB122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AC122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AD122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AE122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AF122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AG122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AH122" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -14179,127 +14179,127 @@
         <v>0</v>
       </c>
       <c r="D123" s="15">
-        <f t="shared" ref="D123:AH123" si="51">PRODUCT((POWER(2,D$2)), D53)</f>
+        <f t="shared" ref="D123:AH123" si="53">PRODUCT((POWER(2,D$2)), D53)</f>
         <v>0</v>
       </c>
       <c r="E123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="X123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AA123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AB123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AD123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AE123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AF123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AG123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AH123" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -14309,127 +14309,127 @@
         <v>0</v>
       </c>
       <c r="D124" s="15">
-        <f t="shared" ref="D124:AH124" si="52">PRODUCT((POWER(2,D$2)), D54)</f>
+        <f t="shared" ref="D124:AH124" si="54">PRODUCT((POWER(2,D$2)), D54)</f>
         <v>0</v>
       </c>
       <c r="E124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="U124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="V124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="W124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Y124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AE124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AF124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AG124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AH124" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -14439,127 +14439,127 @@
         <v>0</v>
       </c>
       <c r="D125" s="15">
-        <f t="shared" ref="D125:AH125" si="53">PRODUCT((POWER(2,D$2)), D55)</f>
+        <f t="shared" ref="D125:AH125" si="55">PRODUCT((POWER(2,D$2)), D55)</f>
         <v>0</v>
       </c>
       <c r="E125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="U125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="V125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="W125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="X125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Z125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AA125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AB125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AC125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AD125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AF125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AG125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AH125" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -14569,127 +14569,127 @@
         <v>0</v>
       </c>
       <c r="D126" s="15">
-        <f t="shared" ref="D126:AH126" si="54">PRODUCT((POWER(2,D$2)), D56)</f>
+        <f t="shared" ref="D126:AH126" si="56">PRODUCT((POWER(2,D$2)), D56)</f>
         <v>0</v>
       </c>
       <c r="E126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="J126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="T126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="U126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="X126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Y126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AA126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AC126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AD126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AE126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AF126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AG126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AH126" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -14699,127 +14699,127 @@
         <v>0</v>
       </c>
       <c r="D127" s="15">
-        <f t="shared" ref="D127:AH127" si="55">PRODUCT((POWER(2,D$2)), D57)</f>
+        <f t="shared" ref="D127:AH127" si="57">PRODUCT((POWER(2,D$2)), D57)</f>
         <v>0</v>
       </c>
       <c r="E127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="K127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="P127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="R127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="S127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="U127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="X127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Y127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Z127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AC127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AD127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AE127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AG127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AH127" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -14829,127 +14829,127 @@
         <v>0</v>
       </c>
       <c r="D128" s="15">
-        <f t="shared" ref="D128:AH128" si="56">PRODUCT((POWER(2,D$2)), D58)</f>
+        <f t="shared" ref="D128:AH128" si="58">PRODUCT((POWER(2,D$2)), D58)</f>
         <v>0</v>
       </c>
       <c r="E128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="J128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="L128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Q128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="R128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="T128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="U128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="V128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Y128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Z128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AA128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AB128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AC128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AD128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AE128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AF128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AG128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AH128" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -14959,127 +14959,127 @@
         <v>0</v>
       </c>
       <c r="D129" s="15">
-        <f t="shared" ref="D129:AH129" si="57">PRODUCT((POWER(2,D$2)), D59)</f>
+        <f t="shared" ref="D129:AH129" si="59">PRODUCT((POWER(2,D$2)), D59)</f>
         <v>0</v>
       </c>
       <c r="E129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="J129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="K129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Q129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="R129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="T129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="U129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="X129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Z129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AA129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AB129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AD129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AE129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AG129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AH129" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -15089,127 +15089,127 @@
         <v>0</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:AH130" si="58">PRODUCT((POWER(2,D$2)), D60)</f>
+        <f t="shared" ref="D130:AH130" si="60">PRODUCT((POWER(2,D$2)), D60)</f>
         <v>0</v>
       </c>
       <c r="E130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="U130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="V130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="X130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Y130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AA130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AB130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AD130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AE130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AF130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AG130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AH130" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
@@ -15219,127 +15219,127 @@
         <v>0</v>
       </c>
       <c r="D131" s="15">
-        <f t="shared" ref="D131:AH131" si="59">PRODUCT((POWER(2,D$2)), D61)</f>
+        <f t="shared" ref="D131:AH131" si="61">PRODUCT((POWER(2,D$2)), D61)</f>
         <v>0</v>
       </c>
       <c r="E131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="U131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="X131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Y131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Z131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AA131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AB131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AD131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AF131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AG131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AH131" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -15349,127 +15349,127 @@
         <v>0</v>
       </c>
       <c r="D132" s="15">
-        <f t="shared" ref="D132:AH132" si="60">PRODUCT((POWER(2,D$2)), D62)</f>
+        <f t="shared" ref="D132:AH132" si="62">PRODUCT((POWER(2,D$2)), D62)</f>
         <v>0</v>
       </c>
       <c r="E132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="H132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="J132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="K132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Q132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="U132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="X132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Y132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Z132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AA132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AB132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AC132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AD132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AE132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AG132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AH132" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -15479,127 +15479,127 @@
         <v>0</v>
       </c>
       <c r="D133" s="15">
-        <f t="shared" ref="D133:AH133" si="61">PRODUCT((POWER(2,D$2)), D63)</f>
+        <f t="shared" ref="D133:AH133" si="63">PRODUCT((POWER(2,D$2)), D63)</f>
         <v>0</v>
       </c>
       <c r="E133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Q133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="X133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AA133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AB133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AC133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AD133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AF133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AH133" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -15609,127 +15609,127 @@
         <v>0</v>
       </c>
       <c r="D134" s="15">
-        <f t="shared" ref="D134:AH134" si="62">PRODUCT((POWER(2,D$2)), D64)</f>
+        <f t="shared" ref="D134:AH134" si="64">PRODUCT((POWER(2,D$2)), D64)</f>
         <v>0</v>
       </c>
       <c r="E134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="L134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="T134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="V134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="X134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Y134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Z134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AA134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AB134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AC134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AD134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AE134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AF134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AG134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AH134" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -15739,127 +15739,127 @@
         <v>0</v>
       </c>
       <c r="D135" s="15">
-        <f t="shared" ref="D135:AH135" si="63">PRODUCT((POWER(2,D$2)), D65)</f>
+        <f t="shared" ref="D135:AH135" si="65">PRODUCT((POWER(2,D$2)), D65)</f>
         <v>0</v>
       </c>
       <c r="E135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="F135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="K135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="X135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Z135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AA135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AB135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AC135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AD135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AE135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AF135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AG135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AH135" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -15869,127 +15869,127 @@
         <v>0</v>
       </c>
       <c r="D136" s="15">
-        <f t="shared" ref="D136:AH136" si="64">PRODUCT((POWER(2,D$2)), D66)</f>
+        <f t="shared" ref="D136:AH136" si="66">PRODUCT((POWER(2,D$2)), D66)</f>
         <v>0</v>
       </c>
       <c r="E136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="L136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="R136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="S136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="U136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="V136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="W136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Z136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AA136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AC136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AD136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AE136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AF136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AG136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AH136" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -15999,127 +15999,127 @@
         <v>0</v>
       </c>
       <c r="D137" s="15">
-        <f t="shared" ref="D137:AH137" si="65">PRODUCT((POWER(2,D$2)), D67)</f>
+        <f t="shared" ref="D137:AH137" si="67">PRODUCT((POWER(2,D$2)), D67)</f>
         <v>0</v>
       </c>
       <c r="E137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="K137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="U137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="V137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="W137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Z137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AA137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AB137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AD137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AE137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AF137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AG137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AH137" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -16129,127 +16129,127 @@
         <v>0</v>
       </c>
       <c r="D138" s="15">
-        <f t="shared" ref="D138:AH138" si="66">PRODUCT((POWER(2,D$2)), D68)</f>
+        <f t="shared" ref="D138:AH138" si="68">PRODUCT((POWER(2,D$2)), D68)</f>
         <v>0</v>
       </c>
       <c r="E138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="L138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Q138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="R138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="S138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="U138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="V138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="W138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="X138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Y138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Z138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AA138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AB138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AC138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AD138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AE138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AF138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AG138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AH138" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>

--- a/control LUT generator.xlsx
+++ b/control LUT generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\Downloads\8 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E26838CA-8631-4A0F-B65D-621B56511958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52C9587B-12D5-4276-89DC-0ADDDEF688AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DAB1FA04-CE66-4B0E-BC0E-6E0D84A24BB7}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C70AF1-ED50-4B9F-9B65-C4215ACAA671}">
   <dimension ref="A1:AN138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,37 +3464,85 @@
       <c r="J28" s="24">
         <v>0</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
+      <c r="K28" s="24">
+        <v>0</v>
+      </c>
+      <c r="L28" s="24">
+        <v>0</v>
+      </c>
+      <c r="M28" s="24">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24">
+        <v>1</v>
+      </c>
+      <c r="P28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>0</v>
+      </c>
+      <c r="R28" s="24">
+        <v>0</v>
+      </c>
+      <c r="S28" s="24">
+        <v>0</v>
+      </c>
+      <c r="T28" s="24">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24">
+        <v>1</v>
+      </c>
+      <c r="W28" s="24">
+        <v>0</v>
+      </c>
+      <c r="X28" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="24">
+        <v>1</v>
+      </c>
       <c r="AJ28">
         <f t="shared" si="1"/>
-        <v>4294967040</v>
+        <v>2355630080</v>
       </c>
       <c r="AK28" t="str">
         <f t="shared" si="2"/>
-        <v>FFFFFF00</v>
+        <v>8C681000</v>
       </c>
       <c r="AM28" s="8">
         <v>24</v>
@@ -8585,261 +8633,261 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C80" s="15">
-        <f>PRODUCT((POWER(2,C$2)), C45)</f>
+        <f t="shared" ref="C80:AH80" si="12">PRODUCT((POWER(2,C$2)), C45)</f>
         <v>0</v>
       </c>
       <c r="D80" s="15">
-        <f>PRODUCT((POWER(2,D$2)), D45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E80" s="15">
-        <f>PRODUCT((POWER(2,E$2)), E45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F80" s="15">
-        <f>PRODUCT((POWER(2,F$2)), F45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G80" s="15">
-        <f>PRODUCT((POWER(2,G$2)), G45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H80" s="15">
-        <f>PRODUCT((POWER(2,H$2)), H45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I80" s="15">
-        <f>PRODUCT((POWER(2,I$2)), I45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J80" s="15">
-        <f>PRODUCT((POWER(2,J$2)), J45)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K80" s="15">
-        <f>PRODUCT((POWER(2,K$2)), K45)</f>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="L80" s="15">
-        <f>PRODUCT((POWER(2,L$2)), L45)</f>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="M80" s="15">
-        <f>PRODUCT((POWER(2,M$2)), M45)</f>
+        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
       <c r="N80" s="15">
-        <f>PRODUCT((POWER(2,N$2)), N45)</f>
+        <f t="shared" si="12"/>
         <v>2048</v>
       </c>
       <c r="O80" s="15">
-        <f>PRODUCT((POWER(2,O$2)), O45)</f>
+        <f t="shared" si="12"/>
         <v>4096</v>
       </c>
       <c r="P80" s="15">
-        <f>PRODUCT((POWER(2,P$2)), P45)</f>
+        <f t="shared" si="12"/>
         <v>8192</v>
       </c>
       <c r="Q80" s="15">
-        <f>PRODUCT((POWER(2,Q$2)), Q45)</f>
+        <f t="shared" si="12"/>
         <v>16384</v>
       </c>
       <c r="R80" s="15">
-        <f>PRODUCT((POWER(2,R$2)), R45)</f>
+        <f t="shared" si="12"/>
         <v>32768</v>
       </c>
       <c r="S80" s="15">
-        <f>PRODUCT((POWER(2,S$2)), S45)</f>
+        <f t="shared" si="12"/>
         <v>65536</v>
       </c>
       <c r="T80" s="15">
-        <f>PRODUCT((POWER(2,T$2)), T45)</f>
+        <f t="shared" si="12"/>
         <v>131072</v>
       </c>
       <c r="U80" s="15">
-        <f>PRODUCT((POWER(2,U$2)), U45)</f>
+        <f t="shared" si="12"/>
         <v>262144</v>
       </c>
       <c r="V80" s="15">
-        <f>PRODUCT((POWER(2,V$2)), V45)</f>
+        <f t="shared" si="12"/>
         <v>524288</v>
       </c>
       <c r="W80" s="15">
-        <f>PRODUCT((POWER(2,W$2)), W45)</f>
+        <f t="shared" si="12"/>
         <v>1048576</v>
       </c>
       <c r="X80" s="15">
-        <f>PRODUCT((POWER(2,X$2)), X45)</f>
+        <f t="shared" si="12"/>
         <v>2097152</v>
       </c>
       <c r="Y80" s="15">
-        <f>PRODUCT((POWER(2,Y$2)), Y45)</f>
+        <f t="shared" si="12"/>
         <v>4194304</v>
       </c>
       <c r="Z80" s="15">
-        <f>PRODUCT((POWER(2,Z$2)), Z45)</f>
+        <f t="shared" si="12"/>
         <v>8388608</v>
       </c>
       <c r="AA80" s="15">
-        <f>PRODUCT((POWER(2,AA$2)), AA45)</f>
+        <f t="shared" si="12"/>
         <v>16777216</v>
       </c>
       <c r="AB80" s="15">
-        <f>PRODUCT((POWER(2,AB$2)), AB45)</f>
+        <f t="shared" si="12"/>
         <v>33554432</v>
       </c>
       <c r="AC80" s="15">
-        <f>PRODUCT((POWER(2,AC$2)), AC45)</f>
+        <f t="shared" si="12"/>
         <v>67108864</v>
       </c>
       <c r="AD80" s="15">
-        <f>PRODUCT((POWER(2,AD$2)), AD45)</f>
+        <f t="shared" si="12"/>
         <v>134217728</v>
       </c>
       <c r="AE80" s="15">
-        <f>PRODUCT((POWER(2,AE$2)), AE45)</f>
+        <f t="shared" si="12"/>
         <v>268435456</v>
       </c>
       <c r="AF80" s="15">
-        <f>PRODUCT((POWER(2,AF$2)), AF45)</f>
+        <f t="shared" si="12"/>
         <v>536870912</v>
       </c>
       <c r="AG80" s="15">
-        <f>PRODUCT((POWER(2,AG$2)), AG45)</f>
+        <f t="shared" si="12"/>
         <v>1073741824</v>
       </c>
       <c r="AH80" s="15">
-        <f>PRODUCT((POWER(2,AH$2)), AH45)</f>
+        <f t="shared" si="12"/>
         <v>2147483648</v>
       </c>
     </row>
     <row r="81" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C81" s="15">
-        <f>PRODUCT((POWER(2,C$2)), C46)</f>
+        <f t="shared" ref="C81:AH81" si="13">PRODUCT((POWER(2,C$2)), C46)</f>
         <v>0</v>
       </c>
       <c r="D81" s="15">
-        <f>PRODUCT((POWER(2,D$2)), D46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E81" s="15">
-        <f>PRODUCT((POWER(2,E$2)), E46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F81" s="15">
-        <f>PRODUCT((POWER(2,F$2)), F46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G81" s="15">
-        <f>PRODUCT((POWER(2,G$2)), G46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H81" s="15">
-        <f>PRODUCT((POWER(2,H$2)), H46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I81" s="15">
-        <f>PRODUCT((POWER(2,I$2)), I46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J81" s="15">
-        <f>PRODUCT((POWER(2,J$2)), J46)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K81" s="15">
-        <f>PRODUCT((POWER(2,K$2)), K46)</f>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="L81" s="15">
-        <f>PRODUCT((POWER(2,L$2)), L46)</f>
+        <f t="shared" si="13"/>
         <v>512</v>
       </c>
       <c r="M81" s="15">
-        <f>PRODUCT((POWER(2,M$2)), M46)</f>
+        <f t="shared" si="13"/>
         <v>1024</v>
       </c>
       <c r="N81" s="15">
-        <f>PRODUCT((POWER(2,N$2)), N46)</f>
+        <f t="shared" si="13"/>
         <v>2048</v>
       </c>
       <c r="O81" s="15">
-        <f>PRODUCT((POWER(2,O$2)), O46)</f>
+        <f t="shared" si="13"/>
         <v>4096</v>
       </c>
       <c r="P81" s="15">
-        <f>PRODUCT((POWER(2,P$2)), P46)</f>
+        <f t="shared" si="13"/>
         <v>8192</v>
       </c>
       <c r="Q81" s="15">
-        <f>PRODUCT((POWER(2,Q$2)), Q46)</f>
+        <f t="shared" si="13"/>
         <v>16384</v>
       </c>
       <c r="R81" s="15">
-        <f>PRODUCT((POWER(2,R$2)), R46)</f>
+        <f t="shared" si="13"/>
         <v>32768</v>
       </c>
       <c r="S81" s="15">
-        <f>PRODUCT((POWER(2,S$2)), S46)</f>
+        <f t="shared" si="13"/>
         <v>65536</v>
       </c>
       <c r="T81" s="15">
-        <f>PRODUCT((POWER(2,T$2)), T46)</f>
+        <f t="shared" si="13"/>
         <v>131072</v>
       </c>
       <c r="U81" s="15">
-        <f>PRODUCT((POWER(2,U$2)), U46)</f>
+        <f t="shared" si="13"/>
         <v>262144</v>
       </c>
       <c r="V81" s="15">
-        <f>PRODUCT((POWER(2,V$2)), V46)</f>
+        <f t="shared" si="13"/>
         <v>524288</v>
       </c>
       <c r="W81" s="15">
-        <f>PRODUCT((POWER(2,W$2)), W46)</f>
+        <f t="shared" si="13"/>
         <v>1048576</v>
       </c>
       <c r="X81" s="15">
-        <f>PRODUCT((POWER(2,X$2)), X46)</f>
+        <f t="shared" si="13"/>
         <v>2097152</v>
       </c>
       <c r="Y81" s="15">
-        <f>PRODUCT((POWER(2,Y$2)), Y46)</f>
+        <f t="shared" si="13"/>
         <v>4194304</v>
       </c>
       <c r="Z81" s="15">
-        <f>PRODUCT((POWER(2,Z$2)), Z46)</f>
+        <f t="shared" si="13"/>
         <v>8388608</v>
       </c>
       <c r="AA81" s="15">
-        <f>PRODUCT((POWER(2,AA$2)), AA46)</f>
+        <f t="shared" si="13"/>
         <v>16777216</v>
       </c>
       <c r="AB81" s="15">
-        <f>PRODUCT((POWER(2,AB$2)), AB46)</f>
+        <f t="shared" si="13"/>
         <v>33554432</v>
       </c>
       <c r="AC81" s="15">
-        <f>PRODUCT((POWER(2,AC$2)), AC46)</f>
+        <f t="shared" si="13"/>
         <v>67108864</v>
       </c>
       <c r="AD81" s="15">
-        <f>PRODUCT((POWER(2,AD$2)), AD46)</f>
+        <f t="shared" si="13"/>
         <v>134217728</v>
       </c>
       <c r="AE81" s="15">
-        <f>PRODUCT((POWER(2,AE$2)), AE46)</f>
+        <f t="shared" si="13"/>
         <v>268435456</v>
       </c>
       <c r="AF81" s="15">
-        <f>PRODUCT((POWER(2,AF$2)), AF46)</f>
+        <f t="shared" si="13"/>
         <v>536870912</v>
       </c>
       <c r="AG81" s="15">
-        <f>PRODUCT((POWER(2,AG$2)), AG46)</f>
+        <f t="shared" si="13"/>
         <v>1073741824</v>
       </c>
       <c r="AH81" s="15">
-        <f>PRODUCT((POWER(2,AH$2)), AH46)</f>
+        <f t="shared" si="13"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -8849,127 +8897,127 @@
         <v>0</v>
       </c>
       <c r="D82" s="15">
-        <f t="shared" ref="D82:AH82" si="12">PRODUCT((POWER(2,D$2)), D12)</f>
+        <f t="shared" ref="D82:AH82" si="14">PRODUCT((POWER(2,D$2)), D12)</f>
         <v>0</v>
       </c>
       <c r="E82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>512</v>
       </c>
       <c r="M82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1024</v>
       </c>
       <c r="N82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2048</v>
       </c>
       <c r="O82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4096</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8192</v>
       </c>
       <c r="Q82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16384</v>
       </c>
       <c r="R82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32768</v>
       </c>
       <c r="S82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>65536</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>131072</v>
       </c>
       <c r="U82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>262144</v>
       </c>
       <c r="V82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>524288</v>
       </c>
       <c r="W82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1048576</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2097152</v>
       </c>
       <c r="Y82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4194304</v>
       </c>
       <c r="Z82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8388608</v>
       </c>
       <c r="AA82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16777216</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33554432</v>
       </c>
       <c r="AC82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>67108864</v>
       </c>
       <c r="AD82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>134217728</v>
       </c>
       <c r="AE82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>268435456</v>
       </c>
       <c r="AF82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>536870912</v>
       </c>
       <c r="AG82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1073741824</v>
       </c>
       <c r="AH82" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -8979,127 +9027,127 @@
         <v>0</v>
       </c>
       <c r="D83" s="15">
-        <f t="shared" ref="D83:AH83" si="13">PRODUCT((POWER(2,D$2)), D13)</f>
+        <f t="shared" ref="D83:AH83" si="15">PRODUCT((POWER(2,D$2)), D13)</f>
         <v>0</v>
       </c>
       <c r="E83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4096</v>
       </c>
       <c r="P83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>67108864</v>
       </c>
       <c r="AD83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>134217728</v>
       </c>
       <c r="AE83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1073741824</v>
       </c>
       <c r="AH83" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -9109,127 +9157,127 @@
         <v>0</v>
       </c>
       <c r="D84" s="15">
-        <f t="shared" ref="D84:AH84" si="14">PRODUCT((POWER(2,D$2)), D14)</f>
+        <f t="shared" ref="D84:AH84" si="16">PRODUCT((POWER(2,D$2)), D14)</f>
         <v>0</v>
       </c>
       <c r="E84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4096</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>67108864</v>
       </c>
       <c r="AD84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>134217728</v>
       </c>
       <c r="AE84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1073741824</v>
       </c>
       <c r="AH84" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -9239,127 +9287,127 @@
         <v>0</v>
       </c>
       <c r="D85" s="15">
-        <f t="shared" ref="D85:AH85" si="15">PRODUCT((POWER(2,D$2)), D15)</f>
+        <f t="shared" ref="D85:AH85" si="17">PRODUCT((POWER(2,D$2)), D15)</f>
         <v>0</v>
       </c>
       <c r="E85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4096</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>262144</v>
       </c>
       <c r="V85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>67108864</v>
       </c>
       <c r="AD85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>134217728</v>
       </c>
       <c r="AE85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1073741824</v>
       </c>
       <c r="AH85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -9369,127 +9417,127 @@
         <v>0</v>
       </c>
       <c r="D86" s="15">
-        <f t="shared" ref="D86:AH86" si="16">PRODUCT((POWER(2,D$2)), D16)</f>
+        <f t="shared" ref="D86:AH86" si="18">PRODUCT((POWER(2,D$2)), D16)</f>
         <v>0</v>
       </c>
       <c r="E86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4096</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>262144</v>
       </c>
       <c r="V86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>67108864</v>
       </c>
       <c r="AD86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>134217728</v>
       </c>
       <c r="AE86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1073741824</v>
       </c>
       <c r="AH86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -9499,127 +9547,127 @@
         <v>0</v>
       </c>
       <c r="D87" s="15">
-        <f t="shared" ref="D87:AH87" si="17">PRODUCT((POWER(2,D$2)), D17)</f>
+        <f t="shared" ref="D87:AH87" si="19">PRODUCT((POWER(2,D$2)), D17)</f>
         <v>0</v>
       </c>
       <c r="E87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4096</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1048576</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2097152</v>
       </c>
       <c r="Y87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AC87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>67108864</v>
       </c>
       <c r="AD87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>134217728</v>
       </c>
       <c r="AE87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AG87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1073741824</v>
       </c>
       <c r="AH87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9629,127 +9677,127 @@
         <v>0</v>
       </c>
       <c r="D88" s="15">
-        <f t="shared" ref="D88:AH88" si="18">PRODUCT((POWER(2,D$2)), D18)</f>
+        <f t="shared" ref="D88:AH88" si="20">PRODUCT((POWER(2,D$2)), D18)</f>
         <v>0</v>
       </c>
       <c r="E88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4096</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>524288</v>
       </c>
       <c r="W88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1048576</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2097152</v>
       </c>
       <c r="Y88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>67108864</v>
       </c>
       <c r="AD88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>134217728</v>
       </c>
       <c r="AE88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AG88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1073741824</v>
       </c>
       <c r="AH88" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -9759,127 +9807,127 @@
         <v>0</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" ref="D89:AH89" si="19">PRODUCT((POWER(2,D$2)), D19)</f>
+        <f t="shared" ref="D89:AH89" si="21">PRODUCT((POWER(2,D$2)), D19)</f>
         <v>0</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>512</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1024</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2048</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4096</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8192</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16384</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>32768</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>65536</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>131072</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>262144</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>524288</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1048576</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2097152</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4194304</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8388608</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16777216</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33554432</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>67108864</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>134217728</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>268435456</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>536870912</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1073741824</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -9889,127 +9937,127 @@
         <v>0</v>
       </c>
       <c r="D90" s="15">
-        <f t="shared" ref="D90:AH90" si="20">PRODUCT((POWER(2,D$2)), D20)</f>
+        <f t="shared" ref="D90:AH90" si="22">PRODUCT((POWER(2,D$2)), D20)</f>
         <v>0</v>
       </c>
       <c r="E90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>256</v>
       </c>
       <c r="L90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>512</v>
       </c>
       <c r="M90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1024</v>
       </c>
       <c r="N90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2048</v>
       </c>
       <c r="O90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4096</v>
       </c>
       <c r="P90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8192</v>
       </c>
       <c r="Q90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16384</v>
       </c>
       <c r="R90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32768</v>
       </c>
       <c r="S90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>65536</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>131072</v>
       </c>
       <c r="U90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>262144</v>
       </c>
       <c r="V90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>524288</v>
       </c>
       <c r="W90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1048576</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2097152</v>
       </c>
       <c r="Y90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4194304</v>
       </c>
       <c r="Z90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8388608</v>
       </c>
       <c r="AA90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16777216</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33554432</v>
       </c>
       <c r="AC90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>67108864</v>
       </c>
       <c r="AD90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>134217728</v>
       </c>
       <c r="AE90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>268435456</v>
       </c>
       <c r="AF90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>536870912</v>
       </c>
       <c r="AG90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1073741824</v>
       </c>
       <c r="AH90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10019,127 +10067,127 @@
         <v>0</v>
       </c>
       <c r="D91" s="15">
-        <f t="shared" ref="D91:AH91" si="21">PRODUCT((POWER(2,D$2)), D21)</f>
+        <f t="shared" ref="D91:AH91" si="23">PRODUCT((POWER(2,D$2)), D21)</f>
         <v>0</v>
       </c>
       <c r="E91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4096</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>524288</v>
       </c>
       <c r="W91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4194304</v>
       </c>
       <c r="Z91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>67108864</v>
       </c>
       <c r="AD91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>134217728</v>
       </c>
       <c r="AE91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AG91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1073741824</v>
       </c>
       <c r="AH91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10149,127 +10197,127 @@
         <v>0</v>
       </c>
       <c r="D92" s="15">
-        <f t="shared" ref="D92:AH92" si="22">PRODUCT((POWER(2,D$2)), D22)</f>
+        <f t="shared" ref="D92:AH92" si="24">PRODUCT((POWER(2,D$2)), D22)</f>
         <v>0</v>
       </c>
       <c r="E92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4096</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>524288</v>
       </c>
       <c r="W92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4194304</v>
       </c>
       <c r="Z92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>67108864</v>
       </c>
       <c r="AD92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>134217728</v>
       </c>
       <c r="AE92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1073741824</v>
       </c>
       <c r="AH92" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10279,127 +10327,127 @@
         <v>0</v>
       </c>
       <c r="D93" s="15">
-        <f t="shared" ref="D93:AH93" si="23">PRODUCT((POWER(2,D$2)), D23)</f>
+        <f t="shared" ref="D93:AH93" si="25">PRODUCT((POWER(2,D$2)), D23)</f>
         <v>0</v>
       </c>
       <c r="E93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4096</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1048576</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4194304</v>
       </c>
       <c r="Z93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>67108864</v>
       </c>
       <c r="AD93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>134217728</v>
       </c>
       <c r="AE93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AF93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AG93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1073741824</v>
       </c>
       <c r="AH93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10409,127 +10457,127 @@
         <v>0</v>
       </c>
       <c r="D94" s="15">
-        <f t="shared" ref="D94:AH94" si="24">PRODUCT((POWER(2,D$2)), D24)</f>
+        <f t="shared" ref="D94:AH94" si="26">PRODUCT((POWER(2,D$2)), D24)</f>
         <v>0</v>
       </c>
       <c r="E94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4096</v>
       </c>
       <c r="P94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1048576</v>
       </c>
       <c r="X94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4194304</v>
       </c>
       <c r="Z94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>67108864</v>
       </c>
       <c r="AD94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>134217728</v>
       </c>
       <c r="AE94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1073741824</v>
       </c>
       <c r="AH94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10539,127 +10587,127 @@
         <v>0</v>
       </c>
       <c r="D95" s="15">
-        <f t="shared" ref="D95:AH95" si="25">PRODUCT((POWER(2,D$2)), D25)</f>
+        <f t="shared" ref="D95:AH95" si="27">PRODUCT((POWER(2,D$2)), D25)</f>
         <v>0</v>
       </c>
       <c r="E95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4096</v>
       </c>
       <c r="P95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4194304</v>
       </c>
       <c r="Z95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>67108864</v>
       </c>
       <c r="AD95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>134217728</v>
       </c>
       <c r="AE95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1073741824</v>
       </c>
       <c r="AH95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10669,127 +10717,127 @@
         <v>0</v>
       </c>
       <c r="D96" s="15">
-        <f t="shared" ref="D96:AH96" si="26">PRODUCT((POWER(2,D$2)), D26)</f>
+        <f t="shared" ref="D96:AH96" si="28">PRODUCT((POWER(2,D$2)), D26)</f>
         <v>0</v>
       </c>
       <c r="E96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
       <c r="L96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>512</v>
       </c>
       <c r="M96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1024</v>
       </c>
       <c r="N96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2048</v>
       </c>
       <c r="O96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4096</v>
       </c>
       <c r="P96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8192</v>
       </c>
       <c r="Q96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>16384</v>
       </c>
       <c r="R96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>32768</v>
       </c>
       <c r="S96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>65536</v>
       </c>
       <c r="T96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>131072</v>
       </c>
       <c r="U96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>262144</v>
       </c>
       <c r="V96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>524288</v>
       </c>
       <c r="W96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1048576</v>
       </c>
       <c r="X96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2097152</v>
       </c>
       <c r="Y96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4194304</v>
       </c>
       <c r="Z96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8388608</v>
       </c>
       <c r="AA96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>16777216</v>
       </c>
       <c r="AB96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>33554432</v>
       </c>
       <c r="AC96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>67108864</v>
       </c>
       <c r="AD96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>134217728</v>
       </c>
       <c r="AE96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>268435456</v>
       </c>
       <c r="AF96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>536870912</v>
       </c>
       <c r="AG96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1073741824</v>
       </c>
       <c r="AH96" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10799,127 +10847,127 @@
         <v>0</v>
       </c>
       <c r="D97" s="15">
-        <f t="shared" ref="D97:AH97" si="27">PRODUCT((POWER(2,D$2)), D27)</f>
+        <f t="shared" ref="D97:AH97" si="29">PRODUCT((POWER(2,D$2)), D27)</f>
         <v>0</v>
       </c>
       <c r="E97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>256</v>
       </c>
       <c r="L97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>512</v>
       </c>
       <c r="M97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1024</v>
       </c>
       <c r="N97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2048</v>
       </c>
       <c r="O97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4096</v>
       </c>
       <c r="P97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8192</v>
       </c>
       <c r="Q97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>16384</v>
       </c>
       <c r="R97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>32768</v>
       </c>
       <c r="S97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>65536</v>
       </c>
       <c r="T97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>131072</v>
       </c>
       <c r="U97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>262144</v>
       </c>
       <c r="V97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>524288</v>
       </c>
       <c r="W97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1048576</v>
       </c>
       <c r="X97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2097152</v>
       </c>
       <c r="Y97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4194304</v>
       </c>
       <c r="Z97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8388608</v>
       </c>
       <c r="AA97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>16777216</v>
       </c>
       <c r="AB97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>33554432</v>
       </c>
       <c r="AC97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>67108864</v>
       </c>
       <c r="AD97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>134217728</v>
       </c>
       <c r="AE97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>268435456</v>
       </c>
       <c r="AF97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>536870912</v>
       </c>
       <c r="AG97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1073741824</v>
       </c>
       <c r="AH97" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -10929,127 +10977,127 @@
         <v>0</v>
       </c>
       <c r="D98" s="15">
-        <f t="shared" ref="D98:AH98" si="28">PRODUCT((POWER(2,D$2)), D28)</f>
+        <f t="shared" ref="D98:AH98" si="30">PRODUCT((POWER(2,D$2)), D28)</f>
         <v>0</v>
       </c>
       <c r="E98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K98" s="15">
-        <f t="shared" si="28"/>
-        <v>256</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="L98" s="15">
-        <f t="shared" si="28"/>
-        <v>512</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="M98" s="15">
-        <f t="shared" si="28"/>
-        <v>1024</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="N98" s="15">
-        <f t="shared" si="28"/>
-        <v>2048</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="O98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4096</v>
       </c>
       <c r="P98" s="15">
-        <f t="shared" si="28"/>
-        <v>8192</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="Q98" s="15">
-        <f t="shared" si="28"/>
-        <v>16384</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="R98" s="15">
-        <f t="shared" si="28"/>
-        <v>32768</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="S98" s="15">
-        <f t="shared" si="28"/>
-        <v>65536</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="T98" s="15">
-        <f t="shared" si="28"/>
-        <v>131072</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="U98" s="15">
-        <f t="shared" si="28"/>
-        <v>262144</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="V98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>524288</v>
       </c>
       <c r="W98" s="15">
-        <f t="shared" si="28"/>
-        <v>1048576</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="X98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2097152</v>
       </c>
       <c r="Y98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4194304</v>
       </c>
       <c r="Z98" s="15">
-        <f t="shared" si="28"/>
-        <v>8388608</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AA98" s="15">
-        <f t="shared" si="28"/>
-        <v>16777216</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AB98" s="15">
-        <f t="shared" si="28"/>
-        <v>33554432</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AC98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>67108864</v>
       </c>
       <c r="AD98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>134217728</v>
       </c>
       <c r="AE98" s="15">
-        <f t="shared" si="28"/>
-        <v>268435456</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AF98" s="15">
-        <f t="shared" si="28"/>
-        <v>536870912</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AG98" s="15">
-        <f t="shared" si="28"/>
-        <v>1073741824</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="AH98" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11059,127 +11107,127 @@
         <v>0</v>
       </c>
       <c r="D99" s="15">
-        <f t="shared" ref="D99:AH99" si="29">PRODUCT((POWER(2,D$2)), D29)</f>
+        <f t="shared" ref="D99:AH99" si="31">PRODUCT((POWER(2,D$2)), D29)</f>
         <v>0</v>
       </c>
       <c r="E99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4096</v>
       </c>
       <c r="P99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>262144</v>
       </c>
       <c r="V99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>524288</v>
       </c>
       <c r="W99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1048576</v>
       </c>
       <c r="X99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8388608</v>
       </c>
       <c r="AA99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>67108864</v>
       </c>
       <c r="AD99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>134217728</v>
       </c>
       <c r="AE99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1073741824</v>
       </c>
       <c r="AH99" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11189,127 +11237,127 @@
         <v>0</v>
       </c>
       <c r="D100" s="15">
-        <f t="shared" ref="D100:AH100" si="30">PRODUCT((POWER(2,D$2)), D30)</f>
+        <f t="shared" ref="D100:AH100" si="32">PRODUCT((POWER(2,D$2)), D30)</f>
         <v>0</v>
       </c>
       <c r="E100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4096</v>
       </c>
       <c r="P100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>262144</v>
       </c>
       <c r="V100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>524288</v>
       </c>
       <c r="W100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1048576</v>
       </c>
       <c r="X100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8388608</v>
       </c>
       <c r="AA100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>67108864</v>
       </c>
       <c r="AD100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>134217728</v>
       </c>
       <c r="AE100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AF100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1073741824</v>
       </c>
       <c r="AH100" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11319,127 +11367,127 @@
         <v>0</v>
       </c>
       <c r="D101" s="15">
-        <f t="shared" ref="D101:AH101" si="31">PRODUCT((POWER(2,D$2)), D31)</f>
+        <f t="shared" ref="D101:AH101" si="33">PRODUCT((POWER(2,D$2)), D31)</f>
         <v>0</v>
       </c>
       <c r="E101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4096</v>
       </c>
       <c r="P101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>262144</v>
       </c>
       <c r="V101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>524288</v>
       </c>
       <c r="W101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8388608</v>
       </c>
       <c r="AA101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AC101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>67108864</v>
       </c>
       <c r="AD101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>134217728</v>
       </c>
       <c r="AE101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AG101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1073741824</v>
       </c>
       <c r="AH101" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11449,127 +11497,127 @@
         <v>0</v>
       </c>
       <c r="D102" s="15">
-        <f t="shared" ref="D102:AH102" si="32">PRODUCT((POWER(2,D$2)), D32)</f>
+        <f t="shared" ref="D102:AH102" si="34">PRODUCT((POWER(2,D$2)), D32)</f>
         <v>0</v>
       </c>
       <c r="E102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>4096</v>
       </c>
       <c r="P102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>262144</v>
       </c>
       <c r="V102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>524288</v>
       </c>
       <c r="W102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>8388608</v>
       </c>
       <c r="AA102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AB102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AC102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>67108864</v>
       </c>
       <c r="AD102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>134217728</v>
       </c>
       <c r="AE102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AF102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1073741824</v>
       </c>
       <c r="AH102" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11579,127 +11627,127 @@
         <v>0</v>
       </c>
       <c r="D103" s="15">
-        <f t="shared" ref="D103:AH103" si="33">PRODUCT((POWER(2,D$2)), D33)</f>
+        <f t="shared" ref="D103:AH103" si="35">PRODUCT((POWER(2,D$2)), D33)</f>
         <v>0</v>
       </c>
       <c r="E103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4096</v>
       </c>
       <c r="P103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>262144</v>
       </c>
       <c r="V103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1048576</v>
       </c>
       <c r="X103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8388608</v>
       </c>
       <c r="AA103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AC103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>67108864</v>
       </c>
       <c r="AD103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>134217728</v>
       </c>
       <c r="AE103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1073741824</v>
       </c>
       <c r="AH103" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11709,127 +11757,127 @@
         <v>0</v>
       </c>
       <c r="D104" s="15">
-        <f t="shared" ref="D104:AH104" si="34">PRODUCT((POWER(2,D$2)), D34)</f>
+        <f t="shared" ref="D104:AH104" si="36">PRODUCT((POWER(2,D$2)), D34)</f>
         <v>0</v>
       </c>
       <c r="E104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4096</v>
       </c>
       <c r="P104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>262144</v>
       </c>
       <c r="V104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1048576</v>
       </c>
       <c r="X104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8388608</v>
       </c>
       <c r="AA104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AC104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>67108864</v>
       </c>
       <c r="AD104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>134217728</v>
       </c>
       <c r="AE104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AF104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1073741824</v>
       </c>
       <c r="AH104" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11839,127 +11887,127 @@
         <v>0</v>
       </c>
       <c r="D105" s="15">
-        <f t="shared" ref="D105:AH105" si="35">PRODUCT((POWER(2,D$2)), D35)</f>
+        <f t="shared" ref="D105:AH105" si="37">PRODUCT((POWER(2,D$2)), D35)</f>
         <v>0</v>
       </c>
       <c r="E105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>256</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>512</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1024</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2048</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4096</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8192</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>16384</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>32768</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>65536</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>131072</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>262144</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>524288</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1048576</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2097152</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4194304</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8388608</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>16777216</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>33554432</v>
       </c>
       <c r="AC105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>67108864</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>134217728</v>
       </c>
       <c r="AE105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>268435456</v>
       </c>
       <c r="AF105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>536870912</v>
       </c>
       <c r="AG105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1073741824</v>
       </c>
       <c r="AH105" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -11969,127 +12017,127 @@
         <v>0</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" ref="D106:AH106" si="36">PRODUCT((POWER(2,D$2)), D36)</f>
+        <f t="shared" ref="D106:AH106" si="38">PRODUCT((POWER(2,D$2)), D36)</f>
         <v>0</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>256</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>512</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1024</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2048</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4096</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8192</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16384</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>32768</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>65536</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>131072</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>262144</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>524288</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1048576</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2097152</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4194304</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8388608</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>16777216</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>33554432</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>67108864</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>134217728</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>268435456</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>536870912</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1073741824</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -12099,127 +12147,127 @@
         <v>0</v>
       </c>
       <c r="D107" s="15">
-        <f t="shared" ref="D107:AH107" si="37">PRODUCT((POWER(2,D$2)), D37)</f>
+        <f t="shared" ref="D107:AH107" si="39">PRODUCT((POWER(2,D$2)), D37)</f>
         <v>0</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>16384</v>
       </c>
       <c r="R107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>33554432</v>
       </c>
       <c r="AC107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AD107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AE107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AF107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AG107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AH107" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -12229,127 +12277,127 @@
         <v>0</v>
       </c>
       <c r="D108" s="15">
-        <f t="shared" ref="D108:AH108" si="38">PRODUCT((POWER(2,D$2)), D38)</f>
+        <f t="shared" ref="D108:AH108" si="40">PRODUCT((POWER(2,D$2)), D38)</f>
         <v>0</v>
       </c>
       <c r="E108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>32768</v>
       </c>
       <c r="S108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AE108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AF108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AG108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH108" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -12359,127 +12407,127 @@
         <v>0</v>
       </c>
       <c r="D109" s="15">
-        <f t="shared" ref="D109:AH109" si="39">PRODUCT((POWER(2,D$2)), D39)</f>
+        <f t="shared" ref="D109:AH109" si="41">PRODUCT((POWER(2,D$2)), D39)</f>
         <v>0</v>
       </c>
       <c r="E109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>65536</v>
       </c>
       <c r="T109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AC109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AE109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AF109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AH109" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -12489,127 +12537,127 @@
         <v>0</v>
       </c>
       <c r="D110" s="15">
-        <f t="shared" ref="D110:AH110" si="40">PRODUCT((POWER(2,D$2)), D40)</f>
+        <f t="shared" ref="D110:AH110" si="42">PRODUCT((POWER(2,D$2)), D40)</f>
         <v>0</v>
       </c>
       <c r="E110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2048</v>
       </c>
       <c r="O110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>131072</v>
       </c>
       <c r="U110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AF110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AG110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1073741824</v>
       </c>
       <c r="AH110" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -12619,127 +12667,127 @@
         <v>0</v>
       </c>
       <c r="D111" s="15">
-        <f t="shared" ref="D111:AH111" si="41">PRODUCT((POWER(2,D$2)), D41)</f>
+        <f t="shared" ref="D111:AH111" si="43">PRODUCT((POWER(2,D$2)), D41)</f>
         <v>0</v>
       </c>
       <c r="E111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="T111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="U111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="X111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AA111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AB111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AC111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AD111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AF111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH111" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -12749,127 +12797,127 @@
         <v>0</v>
       </c>
       <c r="D112" s="15">
-        <f t="shared" ref="D112:AH112" si="42">PRODUCT((POWER(2,D$2)), D42)</f>
+        <f t="shared" ref="D112:AH112" si="44">PRODUCT((POWER(2,D$2)), D42)</f>
         <v>0</v>
       </c>
       <c r="E112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="R112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="X112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Y112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Z112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AA112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>16777216</v>
       </c>
       <c r="AB112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AC112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AE112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AF112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AG112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1073741824</v>
       </c>
       <c r="AH112" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -12879,127 +12927,127 @@
         <v>0</v>
       </c>
       <c r="D113" s="15">
-        <f t="shared" ref="D113:AH113" si="43">PRODUCT((POWER(2,D$2)), D43)</f>
+        <f t="shared" ref="D113:AH113" si="45">PRODUCT((POWER(2,D$2)), D43)</f>
         <v>0</v>
       </c>
       <c r="E113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="I113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="K113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>256</v>
       </c>
       <c r="L113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>512</v>
       </c>
       <c r="M113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1024</v>
       </c>
       <c r="N113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2048</v>
       </c>
       <c r="O113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4096</v>
       </c>
       <c r="P113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8192</v>
       </c>
       <c r="Q113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>16384</v>
       </c>
       <c r="R113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>32768</v>
       </c>
       <c r="S113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>65536</v>
       </c>
       <c r="T113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>131072</v>
       </c>
       <c r="U113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>262144</v>
       </c>
       <c r="V113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>524288</v>
       </c>
       <c r="W113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1048576</v>
       </c>
       <c r="X113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2097152</v>
       </c>
       <c r="Y113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4194304</v>
       </c>
       <c r="Z113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8388608</v>
       </c>
       <c r="AA113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>16777216</v>
       </c>
       <c r="AB113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>33554432</v>
       </c>
       <c r="AC113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>67108864</v>
       </c>
       <c r="AD113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>134217728</v>
       </c>
       <c r="AE113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>268435456</v>
       </c>
       <c r="AF113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>536870912</v>
       </c>
       <c r="AG113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1073741824</v>
       </c>
       <c r="AH113" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -13009,127 +13057,127 @@
         <v>0</v>
       </c>
       <c r="D114" s="15">
-        <f t="shared" ref="D114:AH114" si="44">PRODUCT((POWER(2,D$2)), D44)</f>
+        <f t="shared" ref="D114:AH114" si="46">PRODUCT((POWER(2,D$2)), D44)</f>
         <v>0</v>
       </c>
       <c r="E114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>256</v>
       </c>
       <c r="L114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>512</v>
       </c>
       <c r="M114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1024</v>
       </c>
       <c r="N114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2048</v>
       </c>
       <c r="O114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4096</v>
       </c>
       <c r="P114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>8192</v>
       </c>
       <c r="Q114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>16384</v>
       </c>
       <c r="R114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>32768</v>
       </c>
       <c r="S114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>65536</v>
       </c>
       <c r="T114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>131072</v>
       </c>
       <c r="U114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>262144</v>
       </c>
       <c r="V114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>524288</v>
       </c>
       <c r="W114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1048576</v>
       </c>
       <c r="X114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2097152</v>
       </c>
       <c r="Y114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4194304</v>
       </c>
       <c r="Z114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>8388608</v>
       </c>
       <c r="AA114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>16777216</v>
       </c>
       <c r="AB114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>33554432</v>
       </c>
       <c r="AC114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>67108864</v>
       </c>
       <c r="AD114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>134217728</v>
       </c>
       <c r="AE114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>268435456</v>
       </c>
       <c r="AF114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>536870912</v>
       </c>
       <c r="AG114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1073741824</v>
       </c>
       <c r="AH114" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -13139,127 +13187,127 @@
         <v>0</v>
       </c>
       <c r="D115" s="15">
-        <f t="shared" ref="D115:AH115" si="45" xml:space="preserve"> PRODUCT((POWER(2,D$2)),D45)</f>
+        <f t="shared" ref="D115:AH115" si="47" xml:space="preserve"> PRODUCT((POWER(2,D$2)),D45)</f>
         <v>0</v>
       </c>
       <c r="E115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>256</v>
       </c>
       <c r="L115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>512</v>
       </c>
       <c r="M115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1024</v>
       </c>
       <c r="N115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2048</v>
       </c>
       <c r="O115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4096</v>
       </c>
       <c r="P115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8192</v>
       </c>
       <c r="Q115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>16384</v>
       </c>
       <c r="R115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>32768</v>
       </c>
       <c r="S115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>65536</v>
       </c>
       <c r="T115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>131072</v>
       </c>
       <c r="U115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>262144</v>
       </c>
       <c r="V115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>524288</v>
       </c>
       <c r="W115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1048576</v>
       </c>
       <c r="X115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2097152</v>
       </c>
       <c r="Y115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4194304</v>
       </c>
       <c r="Z115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8388608</v>
       </c>
       <c r="AA115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>16777216</v>
       </c>
       <c r="AB115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>33554432</v>
       </c>
       <c r="AC115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>67108864</v>
       </c>
       <c r="AD115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>134217728</v>
       </c>
       <c r="AE115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>268435456</v>
       </c>
       <c r="AF115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>536870912</v>
       </c>
       <c r="AG115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1073741824</v>
       </c>
       <c r="AH115" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -13269,127 +13317,127 @@
         <v>0</v>
       </c>
       <c r="D116" s="15">
-        <f t="shared" ref="D116:AH116" si="46" xml:space="preserve"> PRODUCT((POWER(2,D$2)),D46)</f>
+        <f t="shared" ref="D116:AH116" si="48" xml:space="preserve"> PRODUCT((POWER(2,D$2)),D46)</f>
         <v>0</v>
       </c>
       <c r="E116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>256</v>
       </c>
       <c r="L116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>512</v>
       </c>
       <c r="M116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1024</v>
       </c>
       <c r="N116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2048</v>
       </c>
       <c r="O116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4096</v>
       </c>
       <c r="P116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8192</v>
       </c>
       <c r="Q116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>16384</v>
       </c>
       <c r="R116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32768</v>
       </c>
       <c r="S116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>65536</v>
       </c>
       <c r="T116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>131072</v>
       </c>
       <c r="U116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>262144</v>
       </c>
       <c r="V116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>524288</v>
       </c>
       <c r="W116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1048576</v>
       </c>
       <c r="X116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2097152</v>
       </c>
       <c r="Y116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4194304</v>
       </c>
       <c r="Z116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>8388608</v>
       </c>
       <c r="AA116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>16777216</v>
       </c>
       <c r="AB116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33554432</v>
       </c>
       <c r="AC116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>67108864</v>
       </c>
       <c r="AD116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>134217728</v>
       </c>
       <c r="AE116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>268435456</v>
       </c>
       <c r="AF116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>536870912</v>
       </c>
       <c r="AG116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1073741824</v>
       </c>
       <c r="AH116" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -13399,127 +13447,127 @@
         <v>0</v>
       </c>
       <c r="D117" s="15">
-        <f t="shared" ref="D117:AH117" si="47">PRODUCT((POWER(2,D$2)), D47)</f>
+        <f t="shared" ref="D117:AH117" si="49">PRODUCT((POWER(2,D$2)), D47)</f>
         <v>0</v>
       </c>
       <c r="E117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AA117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AC117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AD117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AE117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AF117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AG117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AH117" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -13529,127 +13577,127 @@
         <v>0</v>
       </c>
       <c r="D118" s="15">
-        <f t="shared" ref="D118:AH118" si="48">PRODUCT((POWER(2,D$2)), D48)</f>
+        <f t="shared" ref="D118:AH118" si="50">PRODUCT((POWER(2,D$2)), D48)</f>
         <v>0</v>
       </c>
       <c r="E118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="W118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="X118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Y118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Z118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AA118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AB118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH118" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -13659,127 +13707,127 @@
         <v>0</v>
       </c>
       <c r="D119" s="15">
-        <f t="shared" ref="D119:AH119" si="49">PRODUCT((POWER(2,D$2)), D49)</f>
+        <f t="shared" ref="D119:AH119" si="51">PRODUCT((POWER(2,D$2)), D49)</f>
         <v>0</v>
       </c>
       <c r="E119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AA119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AB119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AC119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AD119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AE119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AF119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AG119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH119" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -13789,127 +13837,127 @@
         <v>0</v>
       </c>
       <c r="D120" s="15">
-        <f t="shared" ref="D120:AH120" si="50">PRODUCT((POWER(2,D$2)), D50)</f>
+        <f t="shared" ref="D120:AH120" si="52">PRODUCT((POWER(2,D$2)), D50)</f>
         <v>0</v>
       </c>
       <c r="E120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="S120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AB120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AC120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AD120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AE120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AF120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AG120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AH120" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -13919,127 +13967,127 @@
         <v>0</v>
       </c>
       <c r="D121" s="15">
-        <f t="shared" ref="D121:AH121" si="51">PRODUCT((POWER(2,D$2)), D51)</f>
+        <f t="shared" ref="D121:AH121" si="53">PRODUCT((POWER(2,D$2)), D51)</f>
         <v>0</v>
       </c>
       <c r="E121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="X121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Z121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AA121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AB121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AD121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AE121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AF121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AG121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AH121" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -14049,127 +14097,127 @@
         <v>0</v>
       </c>
       <c r="D122" s="15">
-        <f t="shared" ref="D122:AH122" si="52">PRODUCT((POWER(2,D$2)), D52)</f>
+        <f t="shared" ref="D122:AH122" si="54">PRODUCT((POWER(2,D$2)), D52)</f>
         <v>0</v>
       </c>
       <c r="E122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="U122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="V122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="W122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="X122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Y122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AA122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AB122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AC122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AD122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AE122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AF122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AG122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AH122" s="15">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -14179,127 +14227,127 @@
         <v>0</v>
       </c>
       <c r="D123" s="15">
-        <f t="shared" ref="D123:AH123" si="53">PRODUCT((POWER(2,D$2)), D53)</f>
+        <f t="shared" ref="D123:AH123" si="55">PRODUCT((POWER(2,D$2)), D53)</f>
         <v>0</v>
       </c>
       <c r="E123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="U123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="V123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="W123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="X123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Z123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AA123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AB123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AC123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AD123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AE123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AF123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AG123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AH123" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -14309,127 +14357,127 @@
         <v>0</v>
       </c>
       <c r="D124" s="15">
-        <f t="shared" ref="D124:AH124" si="54">PRODUCT((POWER(2,D$2)), D54)</f>
+        <f t="shared" ref="D124:AH124" si="56">PRODUCT((POWER(2,D$2)), D54)</f>
         <v>0</v>
       </c>
       <c r="E124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="J124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="T124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="U124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="W124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="X124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Y124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Z124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AA124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AB124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AC124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AD124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AE124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AF124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AG124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="AH124" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -14439,127 +14487,127 @@
         <v>0</v>
       </c>
       <c r="D125" s="15">
-        <f t="shared" ref="D125:AH125" si="55">PRODUCT((POWER(2,D$2)), D55)</f>
+        <f t="shared" ref="D125:AH125" si="57">PRODUCT((POWER(2,D$2)), D55)</f>
         <v>0</v>
       </c>
       <c r="E125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="K125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="P125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="R125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="S125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="U125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="X125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Y125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Z125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AC125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AD125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AE125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AG125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AH125" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -14569,127 +14617,127 @@
         <v>0</v>
       </c>
       <c r="D126" s="15">
-        <f t="shared" ref="D126:AH126" si="56">PRODUCT((POWER(2,D$2)), D56)</f>
+        <f t="shared" ref="D126:AH126" si="58">PRODUCT((POWER(2,D$2)), D56)</f>
         <v>0</v>
       </c>
       <c r="E126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="J126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="L126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="R126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="S126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="T126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="U126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="V126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Y126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Z126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AA126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AB126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AC126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AD126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AE126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AF126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AG126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AH126" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -14699,127 +14747,127 @@
         <v>0</v>
       </c>
       <c r="D127" s="15">
-        <f t="shared" ref="D127:AH127" si="57">PRODUCT((POWER(2,D$2)), D57)</f>
+        <f t="shared" ref="D127:AH127" si="59">PRODUCT((POWER(2,D$2)), D57)</f>
         <v>0</v>
       </c>
       <c r="E127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="G127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="H127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="I127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="J127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="K127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="M127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Q127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="R127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="T127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="U127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="V127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="X127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Z127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AA127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AB127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AC127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AD127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AE127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AG127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AH127" s="15">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -14829,127 +14877,127 @@
         <v>0</v>
       </c>
       <c r="D128" s="15">
-        <f t="shared" ref="D128:AH128" si="58">PRODUCT((POWER(2,D$2)), D58)</f>
+        <f t="shared" ref="D128:AH128" si="60">PRODUCT((POWER(2,D$2)), D58)</f>
         <v>0</v>
       </c>
       <c r="E128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="O128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="P128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Q128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="U128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="V128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="X128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Y128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AA128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AB128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AC128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AD128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AE128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AF128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AG128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AH128" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
@@ -14959,127 +15007,127 @@
         <v>0</v>
       </c>
       <c r="D129" s="15">
-        <f t="shared" ref="D129:AH129" si="59">PRODUCT((POWER(2,D$2)), D59)</f>
+        <f t="shared" ref="D129:AH129" si="61">PRODUCT((POWER(2,D$2)), D59)</f>
         <v>0</v>
       </c>
       <c r="E129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="G129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="I129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="U129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="X129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Y129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Z129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AA129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AB129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AD129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AE129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AF129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AG129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AH129" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -15089,127 +15137,127 @@
         <v>0</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:AH130" si="60">PRODUCT((POWER(2,D$2)), D60)</f>
+        <f t="shared" ref="D130:AH130" si="62">PRODUCT((POWER(2,D$2)), D60)</f>
         <v>0</v>
       </c>
       <c r="E130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="H130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="J130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="K130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="L130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="P130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Q130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="R130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="S130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="T130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="U130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="V130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="X130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Y130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Z130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AA130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AB130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AC130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AD130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AE130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AF130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AG130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AH130" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -15219,127 +15267,127 @@
         <v>0</v>
       </c>
       <c r="D131" s="15">
-        <f t="shared" ref="D131:AH131" si="61">PRODUCT((POWER(2,D$2)), D61)</f>
+        <f t="shared" ref="D131:AH131" si="63">PRODUCT((POWER(2,D$2)), D61)</f>
         <v>0</v>
       </c>
       <c r="E131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="F131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="G131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="H131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="I131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="L131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Q131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="X131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Y131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AA131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AB131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AC131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AD131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AF131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AG131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AH131" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -15349,127 +15397,127 @@
         <v>0</v>
       </c>
       <c r="D132" s="15">
-        <f t="shared" ref="D132:AH132" si="62">PRODUCT((POWER(2,D$2)), D62)</f>
+        <f t="shared" ref="D132:AH132" si="64">PRODUCT((POWER(2,D$2)), D62)</f>
         <v>0</v>
       </c>
       <c r="E132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="L132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="N132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Q132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="S132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="T132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="U132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="V132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="X132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Y132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Z132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AA132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AB132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AC132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AD132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AE132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AF132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AG132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AH132" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
     </row>
@@ -15479,127 +15527,127 @@
         <v>0</v>
       </c>
       <c r="D133" s="15">
-        <f t="shared" ref="D133:AH133" si="63">PRODUCT((POWER(2,D$2)), D63)</f>
+        <f t="shared" ref="D133:AH133" si="65">PRODUCT((POWER(2,D$2)), D63)</f>
         <v>0</v>
       </c>
       <c r="E133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="F133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="K133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="L133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="M133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="P133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="X133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Z133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AA133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AB133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AC133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AD133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AE133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AF133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AG133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AH133" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -15609,127 +15657,127 @@
         <v>0</v>
       </c>
       <c r="D134" s="15">
-        <f t="shared" ref="D134:AH134" si="64">PRODUCT((POWER(2,D$2)), D64)</f>
+        <f t="shared" ref="D134:AH134" si="66">PRODUCT((POWER(2,D$2)), D64)</f>
         <v>0</v>
       </c>
       <c r="E134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="L134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="R134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="S134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="U134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="V134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="W134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Z134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AA134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AC134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AD134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AE134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AF134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AG134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AH134" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -15739,127 +15787,127 @@
         <v>0</v>
       </c>
       <c r="D135" s="15">
-        <f t="shared" ref="D135:AH135" si="65">PRODUCT((POWER(2,D$2)), D65)</f>
+        <f t="shared" ref="D135:AH135" si="67">PRODUCT((POWER(2,D$2)), D65)</f>
         <v>0</v>
       </c>
       <c r="E135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="K135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="U135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="V135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="W135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Z135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AA135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AB135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AD135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AE135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AF135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AG135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AH135" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -15869,127 +15917,127 @@
         <v>0</v>
       </c>
       <c r="D136" s="15">
-        <f t="shared" ref="D136:AH136" si="66">PRODUCT((POWER(2,D$2)), D66)</f>
+        <f t="shared" ref="D136:AH136" si="68">PRODUCT((POWER(2,D$2)), D66)</f>
         <v>0</v>
       </c>
       <c r="E136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="L136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="O136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="P136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Q136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="R136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="S136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="U136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="V136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="W136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="X136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Y136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Z136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AA136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AB136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AC136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AD136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AE136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AF136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AG136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AH136" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>
@@ -15999,127 +16047,127 @@
         <v>0</v>
       </c>
       <c r="D137" s="15">
-        <f t="shared" ref="D137:AH137" si="67">PRODUCT((POWER(2,D$2)), D67)</f>
+        <f t="shared" ref="D137:AH137" si="69">PRODUCT((POWER(2,D$2)), D67)</f>
         <v>0</v>
       </c>
       <c r="E137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="I137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="K137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="L137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="M137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="N137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="U137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="V137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="W137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="X137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Y137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Z137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AA137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AB137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AC137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AD137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AE137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AF137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AG137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AH137" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
     </row>
@@ -16129,127 +16177,127 @@
         <v>0</v>
       </c>
       <c r="D138" s="15">
-        <f t="shared" ref="D138:AH138" si="68">PRODUCT((POWER(2,D$2)), D68)</f>
+        <f t="shared" ref="D138:AH138" si="70">PRODUCT((POWER(2,D$2)), D68)</f>
         <v>0</v>
       </c>
       <c r="E138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="F138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="R138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="S138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="U138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="V138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="X138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Z138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AA138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AB138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AC138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AD138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AF138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AG138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AH138" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
     </row>
